--- a/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
   <si>
     <t>File Name</t>
   </si>
@@ -130,214 +130,214 @@
     <t>workflow.md</t>
   </si>
   <si>
+    <t>TOC.md</t>
+  </si>
+  <si>
+    <t>analyzing_driver_quality_by_using_code_analysis_tools.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>attestation_signing_a_kernel_driver_for_public_release.md</t>
+  </si>
+  <si>
+    <t>avoiding_floating_point_errors_in_custom_build_environments.md</t>
+  </si>
+  <si>
+    <t>building_a_driver.md</t>
+  </si>
+  <si>
+    <t>building_drivers_for_different_versions_of_windows.md</t>
+  </si>
+  <si>
+    <t>converting_wdk_8_1_projects_to_wdk_10.md</t>
+  </si>
+  <si>
+    <t>counters_manifest_preprocessor_properties_for_driver_projects.md</t>
+  </si>
+  <si>
+    <t>create_a_custom_driver_installation_script.md</t>
+  </si>
+  <si>
+    <t>creating_a_device_metadata_package.md</t>
+  </si>
+  <si>
+    <t>creating_a_driver_from_existing_source_files.md</t>
+  </si>
+  <si>
+    <t>creating_a_driver_package.md</t>
+  </si>
+  <si>
+    <t>creating_a_driver_verification_log.md</t>
+  </si>
+  <si>
+    <t>creating_a_log_file_for_static_driver_verifier.md</t>
+  </si>
+  <si>
+    <t>creating_a_log_file_for_the_code_analysis_tool.md</t>
+  </si>
+  <si>
+    <t>creating_a_new_driver.md</t>
+  </si>
+  <si>
+    <t>creating_a_new_filter_driver.md</t>
+  </si>
+  <si>
+    <t>creating_a_new_software_driver.md</t>
+  </si>
+  <si>
+    <t>debugging_a_driver.md</t>
+  </si>
+  <si>
+    <t>deploying_a_driver_to_a_test_computer.md</t>
+  </si>
+  <si>
+    <t>deployment_properties_for_driver_projects.md</t>
+  </si>
+  <si>
+    <t>distributing_a_driver_package_win8.md</t>
+  </si>
+  <si>
+    <t>driver_model_convergence.md</t>
+  </si>
+  <si>
+    <t>driver_model_settings_properties_for_driver_projects.md</t>
+  </si>
+  <si>
+    <t>driver_signing_properties.md</t>
+  </si>
+  <si>
+    <t>driver_verifier_properties_for__driver_projects.md</t>
+  </si>
+  <si>
+    <t>getting_started_with_universal_drivers.md</t>
+  </si>
+  <si>
+    <t>how_to_select_and_configure_the_device_fundamental_tests.md</t>
+  </si>
+  <si>
+    <t>how_to_test_a_driver_at_runtime_from_a_command_prompt.md</t>
+  </si>
+  <si>
+    <t>how_to_write_a_driver_test_.md</t>
+  </si>
+  <si>
+    <t>attestation_driver_signing_submission_dashboard.png</t>
+  </si>
+  <si>
+    <t>b_wes_driversigning_v2.png</t>
+  </si>
+  <si>
+    <t>ert_test_results.png</t>
+  </si>
+  <si>
+    <t>MultipleDriversSingleSolution.png</t>
+  </si>
+  <si>
+    <t>SigningADriver01.png</t>
+  </si>
+  <si>
+    <t>TargetPlatform.png</t>
+  </si>
+  <si>
+    <t>VsDrvrPkgProps.png</t>
+  </si>
+  <si>
+    <t>VsSlnExplorer.png</t>
+  </si>
+  <si>
+    <t>inf2cat_properties_for_driver_package_projects.md</t>
+  </si>
+  <si>
+    <t>installing_a_universal_driver.md</t>
+  </si>
+  <si>
+    <t>Installing_the_Enterprise_WDK.md</t>
+  </si>
+  <si>
+    <t>installing_the_wdk_build_environment_in_a_lab.md</t>
+  </si>
+  <si>
+    <t>kmdf_verifier_properties_for_driver_package_projects.md</t>
+  </si>
+  <si>
+    <t>message_compiler_properties_for_driver_projects.md</t>
+  </si>
+  <si>
+    <t>mof_compiler_properties_for_driver_projects.md</t>
+  </si>
+  <si>
+    <t>preparing_a_computer_for_manual_driver_deployment.md</t>
+  </si>
+  <si>
+    <t>read_the_driver_test_results_log.md</t>
+  </si>
+  <si>
+    <t>README.md</t>
+  </si>
+  <si>
+    <t>run_the_hck_test_suites_in_the_wdk.md</t>
+  </si>
+  <si>
+    <t>signing_a_driver.md</t>
+  </si>
+  <si>
+    <t>signing_a_driver_during_development_and_testing.md</t>
+  </si>
+  <si>
+    <t>signing_a_driver_for_public_release.md</t>
+  </si>
+  <si>
+    <t>stampinf_properties_for_driver_projects.md</t>
+  </si>
+  <si>
+    <t>strategies_for_testing_drivers_during_development.md</t>
+  </si>
+  <si>
+    <t>test_a_driver_package.md</t>
+  </si>
+  <si>
+    <t>testing_a_driver.md</t>
+  </si>
+  <si>
+    <t>testing_a_driver_at_runtime.md</t>
+  </si>
+  <si>
+    <t>to_add_test_metadata.md</t>
+  </si>
+  <si>
+    <t>troubleshooting_configuration_of_driver_deployment__testing_and_debugging.md</t>
+  </si>
+  <si>
+    <t>troubleshooting_the_device_fundamental_tests.md</t>
+  </si>
+  <si>
+    <t>umdf_verifier_properties_for_driver_package_projects.md</t>
+  </si>
+  <si>
+    <t>using_the_microsoft_c_runtime_with_user_mode_drivers_and_apps.md</t>
+  </si>
+  <si>
+    <t>validating_universal_drivers.md</t>
+  </si>
+  <si>
+    <t>visual_studio_driver_development_environment.md</t>
+  </si>
+  <si>
+    <t>what_happens_when_you_provision_a_computer__wdk_8_0_.md</t>
+  </si>
+  <si>
+    <t>what_happens_when_you_provision_a_computer__wdk_8_1_.md</t>
+  </si>
+  <si>
+    <t>windows_10_editions_for_universal_drivers.md</t>
+  </si>
+  <si>
+    <t>Welcome.md</t>
+  </si>
+  <si>
     <t>test-xliff-2.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>TOC.md</t>
-  </si>
-  <si>
-    <t>analyzing_driver_quality_by_using_code_analysis_tools.md</t>
-  </si>
-  <si>
-    <t>attestation_signing_a_kernel_driver_for_public_release.md</t>
-  </si>
-  <si>
-    <t>avoiding_floating_point_errors_in_custom_build_environments.md</t>
-  </si>
-  <si>
-    <t>building_a_driver.md</t>
-  </si>
-  <si>
-    <t>building_drivers_for_different_versions_of_windows.md</t>
-  </si>
-  <si>
-    <t>converting_wdk_8_1_projects_to_wdk_10.md</t>
-  </si>
-  <si>
-    <t>counters_manifest_preprocessor_properties_for_driver_projects.md</t>
-  </si>
-  <si>
-    <t>create_a_custom_driver_installation_script.md</t>
-  </si>
-  <si>
-    <t>creating_a_device_metadata_package.md</t>
-  </si>
-  <si>
-    <t>creating_a_driver_from_existing_source_files.md</t>
-  </si>
-  <si>
-    <t>creating_a_driver_package.md</t>
-  </si>
-  <si>
-    <t>creating_a_driver_verification_log.md</t>
-  </si>
-  <si>
-    <t>creating_a_log_file_for_static_driver_verifier.md</t>
-  </si>
-  <si>
-    <t>creating_a_log_file_for_the_code_analysis_tool.md</t>
-  </si>
-  <si>
-    <t>creating_a_new_driver.md</t>
-  </si>
-  <si>
-    <t>creating_a_new_filter_driver.md</t>
-  </si>
-  <si>
-    <t>creating_a_new_software_driver.md</t>
-  </si>
-  <si>
-    <t>debugging_a_driver.md</t>
-  </si>
-  <si>
-    <t>deploying_a_driver_to_a_test_computer.md</t>
-  </si>
-  <si>
-    <t>deployment_properties_for_driver_projects.md</t>
-  </si>
-  <si>
-    <t>distributing_a_driver_package_win8.md</t>
-  </si>
-  <si>
-    <t>driver_model_convergence.md</t>
-  </si>
-  <si>
-    <t>driver_model_settings_properties_for_driver_projects.md</t>
-  </si>
-  <si>
-    <t>driver_signing_properties.md</t>
-  </si>
-  <si>
-    <t>driver_verifier_properties_for__driver_projects.md</t>
-  </si>
-  <si>
-    <t>getting_started_with_universal_drivers.md</t>
-  </si>
-  <si>
-    <t>how_to_select_and_configure_the_device_fundamental_tests.md</t>
-  </si>
-  <si>
-    <t>how_to_test_a_driver_at_runtime_from_a_command_prompt.md</t>
-  </si>
-  <si>
-    <t>how_to_write_a_driver_test_.md</t>
-  </si>
-  <si>
-    <t>attestation_driver_signing_submission_dashboard.png</t>
-  </si>
-  <si>
-    <t>b_wes_driversigning_v2.png</t>
-  </si>
-  <si>
-    <t>ert_test_results.png</t>
-  </si>
-  <si>
-    <t>MultipleDriversSingleSolution.png</t>
-  </si>
-  <si>
-    <t>SigningADriver01.png</t>
-  </si>
-  <si>
-    <t>TargetPlatform.png</t>
-  </si>
-  <si>
-    <t>VsDrvrPkgProps.png</t>
-  </si>
-  <si>
-    <t>VsSlnExplorer.png</t>
-  </si>
-  <si>
-    <t>inf2cat_properties_for_driver_package_projects.md</t>
-  </si>
-  <si>
-    <t>installing_a_universal_driver.md</t>
-  </si>
-  <si>
-    <t>Installing_the_Enterprise_WDK.md</t>
-  </si>
-  <si>
-    <t>installing_the_wdk_build_environment_in_a_lab.md</t>
-  </si>
-  <si>
-    <t>kmdf_verifier_properties_for_driver_package_projects.md</t>
-  </si>
-  <si>
-    <t>message_compiler_properties_for_driver_projects.md</t>
-  </si>
-  <si>
-    <t>mof_compiler_properties_for_driver_projects.md</t>
-  </si>
-  <si>
-    <t>preparing_a_computer_for_manual_driver_deployment.md</t>
-  </si>
-  <si>
-    <t>read_the_driver_test_results_log.md</t>
-  </si>
-  <si>
-    <t>README.md</t>
-  </si>
-  <si>
-    <t>run_the_hck_test_suites_in_the_wdk.md</t>
-  </si>
-  <si>
-    <t>signing_a_driver.md</t>
-  </si>
-  <si>
-    <t>signing_a_driver_during_development_and_testing.md</t>
-  </si>
-  <si>
-    <t>signing_a_driver_for_public_release.md</t>
-  </si>
-  <si>
-    <t>stampinf_properties_for_driver_projects.md</t>
-  </si>
-  <si>
-    <t>strategies_for_testing_drivers_during_development.md</t>
-  </si>
-  <si>
-    <t>test_a_driver_package.md</t>
-  </si>
-  <si>
-    <t>testing_a_driver.md</t>
-  </si>
-  <si>
-    <t>testing_a_driver_at_runtime.md</t>
-  </si>
-  <si>
-    <t>to_add_test_metadata.md</t>
-  </si>
-  <si>
-    <t>troubleshooting_configuration_of_driver_deployment__testing_and_debugging.md</t>
-  </si>
-  <si>
-    <t>troubleshooting_the_device_fundamental_tests.md</t>
-  </si>
-  <si>
-    <t>umdf_verifier_properties_for_driver_package_projects.md</t>
-  </si>
-  <si>
-    <t>using_the_microsoft_c_runtime_with_user_mode_drivers_and_apps.md</t>
-  </si>
-  <si>
-    <t>validating_universal_drivers.md</t>
-  </si>
-  <si>
-    <t>visual_studio_driver_development_environment.md</t>
-  </si>
-  <si>
-    <t>what_happens_when_you_provision_a_computer__wdk_8_0_.md</t>
-  </si>
-  <si>
-    <t>what_happens_when_you_provision_a_computer__wdk_8_1_.md</t>
-  </si>
-  <si>
-    <t>windows_10_editions_for_universal_drivers.md</t>
-  </si>
-  <si>
-    <t>Welcome.md</t>
   </si>
   <si>
     <t>.gitignore</t>
@@ -525,21 +525,21 @@
     <t>workflow.c81c0151d66bf0be9587301c3f7e2255d13a9e00.zh-cn.xlf</t>
   </si>
   <si>
+    <t>TOC.a9ee67cb4f35ab2cb1a9b412181346e45899f313.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>analyzing_driver_quality_by_using_code_analysis_tools.fa3d557dd7b16334872b19b7d288e2179b421f36.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 20:35:16</t>
+  </si>
+  <si>
+    <t>2016-01-11 04:50:00</t>
+  </si>
+  <si>
     <t>attestation_signing_a_kernel_driver_for_public_release.60952bf9330143f0f7f5ec5a32dd4e53f311b511.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 20:35:16</t>
-  </si>
-  <si>
-    <t>2016-01-11 04:50:00</t>
-  </si>
-  <si>
-    <t>TOC.a9ee67cb4f35ab2cb1a9b412181346e45899f313.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>analyzing_driver_quality_by_using_code_analysis_tools.fa3d557dd7b16334872b19b7d288e2179b421f36.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>avoiding_floating_point_errors_in_custom_build_environments.cee0e6d04ff683ed75853cbaefdb3cb80a9ba8b9.zh-cn.xlf</t>
   </si>
   <si>
@@ -753,6 +753,12 @@
     <t>Welcome.ecbb965b6e13825c7524206fa12c4cc64183e55b.zh-cn.xlf</t>
   </si>
   <si>
+    <t>test-xliff-2.9e74d19c2a06ffac1ddb5240e10c103cbf0db315.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-20 03:45:22</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -831,15 +837,21 @@
     <t>TOC.a9ee67cb4f35ab2cb1a9b412181346e45899f313.de-de.xlf</t>
   </si>
   <si>
+    <t>test-xliff-2.9e74d19c2a06ffac1ddb5240e10c103cbf0db315.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-20 03:45:40</t>
+  </si>
+  <si>
+    <t>analyzing_driver_quality_by_using_code_analysis_tools.fa3d557dd7b16334872b19b7d288e2179b421f36.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 20:36:15</t>
+  </si>
+  <si>
     <t>attestation_signing_a_kernel_driver_for_public_release.60952bf9330143f0f7f5ec5a32dd4e53f311b511.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 20:36:15</t>
-  </si>
-  <si>
-    <t>analyzing_driver_quality_by_using_code_analysis_tools.fa3d557dd7b16334872b19b7d288e2179b421f36.de-de.xlf</t>
-  </si>
-  <si>
     <t>avoiding_floating_point_errors_in_custom_build_environments.cee0e6d04ff683ed75853cbaefdb3cb80a9ba8b9.de-de.xlf</t>
   </si>
   <si>
@@ -919,9 +931,6 @@
   </si>
   <si>
     <t>how_to_write_a_driver_test_.61f137f1ad3610a554d2e28e0410d98bfb985887.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-20 03:35:51</t>
   </si>
   <si>
     <t>inf2cat_properties_for_driver_package_projects.b6ddd3185a2c07176103bc47e341f746b0f23082.de-de.xlf</t>
@@ -1526,18 +1535,18 @@
         <v>4</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
@@ -1548,7 +1557,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39">
@@ -1559,7 +1568,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40">
@@ -1570,7 +1579,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41">
@@ -1581,7 +1590,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42">
@@ -1592,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43">
@@ -1603,7 +1612,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
@@ -1614,7 +1623,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45">
@@ -1625,7 +1634,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46">
@@ -1636,7 +1645,7 @@
         <v>4</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47">
@@ -1647,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48">
@@ -1658,7 +1667,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49">
@@ -1669,7 +1678,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50">
@@ -1680,7 +1689,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51">
@@ -1691,7 +1700,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52">
@@ -1702,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53">
@@ -1713,7 +1722,7 @@
         <v>4</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54">
@@ -1724,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55">
@@ -1735,7 +1744,7 @@
         <v>4</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56">
@@ -1746,7 +1755,7 @@
         <v>4</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57">
@@ -1757,7 +1766,7 @@
         <v>4</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58">
@@ -1768,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59">
@@ -1779,7 +1788,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60">
@@ -1790,7 +1799,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61">
@@ -1801,7 +1810,7 @@
         <v>4</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62">
@@ -1812,7 +1821,7 @@
         <v>4</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63">
@@ -1823,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64">
@@ -1834,7 +1843,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65">
@@ -1845,7 +1854,7 @@
         <v>4</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66">
@@ -1856,7 +1865,7 @@
         <v>4</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67">
@@ -1867,7 +1876,7 @@
         <v>4</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68">
@@ -1878,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69">
@@ -1889,7 +1898,7 @@
         <v>4</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70">
@@ -1900,7 +1909,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71">
@@ -1911,7 +1920,7 @@
         <v>4</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72">
@@ -1922,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73">
@@ -1933,7 +1942,7 @@
         <v>4</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74">
@@ -1944,7 +1953,7 @@
         <v>4</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75">
@@ -1955,7 +1964,7 @@
         <v>4</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76">
@@ -1966,7 +1975,7 @@
         <v>4</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77">
@@ -1977,7 +1986,7 @@
         <v>4</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78">
@@ -1988,7 +1997,7 @@
         <v>4</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79">
@@ -1999,7 +2008,7 @@
         <v>4</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80">
@@ -2010,7 +2019,7 @@
         <v>4</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81">
@@ -2021,7 +2030,7 @@
         <v>4</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82">
@@ -2032,7 +2041,7 @@
         <v>4</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83">
@@ -2043,7 +2052,7 @@
         <v>4</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84">
@@ -2054,7 +2063,7 @@
         <v>4</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85">
@@ -2065,7 +2074,7 @@
         <v>4</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86">
@@ -2076,7 +2085,7 @@
         <v>4</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87">
@@ -2087,7 +2096,7 @@
         <v>4</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88">
@@ -2098,7 +2107,7 @@
         <v>4</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89">
@@ -2109,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90">
@@ -2120,7 +2129,7 @@
         <v>4</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91">
@@ -2131,7 +2140,7 @@
         <v>4</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92">
@@ -2142,7 +2151,7 @@
         <v>4</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93">
@@ -2153,29 +2162,29 @@
         <v>4</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96">
@@ -2186,7 +2195,7 @@
         <v>4</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97">
@@ -2197,7 +2206,7 @@
         <v>4</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98">
@@ -2208,7 +2217,7 @@
         <v>4</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99">
@@ -2219,7 +2228,7 @@
         <v>4</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100">
@@ -2230,7 +2239,7 @@
         <v>4</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101">
@@ -2241,7 +2250,7 @@
         <v>4</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102">
@@ -2252,7 +2261,7 @@
         <v>4</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103">
@@ -2263,7 +2272,7 @@
         <v>4</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104">
@@ -2274,7 +2283,7 @@
         <v>4</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105">
@@ -2282,10 +2291,10 @@
         <v>107</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106">
@@ -2356,7 +2365,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>109</v>
@@ -2467,76 +2476,76 @@
     <hyperlink ref="A33" display="tedhudek-home.md" r:id="rId33"/>
     <hyperlink ref="A34" display="wdcml-to-open-publish.md" r:id="rId34"/>
     <hyperlink ref="A35" display="workflow.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="test-xliff-2.md" r:id="rId36"/>
-    <hyperlink ref="A37" display="TOC.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="analyzing_driver_quality_by_using_code_analysis_tools.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="attestation_signing_a_kernel_driver_for_public_release.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="avoiding_floating_point_errors_in_custom_build_environments.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="building_a_driver.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="building_drivers_for_different_versions_of_windows.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="converting_wdk_8_1_projects_to_wdk_10.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="counters_manifest_preprocessor_properties_for_driver_projects.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="create_a_custom_driver_installation_script.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="creating_a_device_metadata_package.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="creating_a_driver_from_existing_source_files.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="creating_a_driver_package.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="creating_a_driver_verification_log.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="creating_a_log_file_for_static_driver_verifier.md" r:id="rId50"/>
-    <hyperlink ref="A51" display="creating_a_log_file_for_the_code_analysis_tool.md" r:id="rId51"/>
-    <hyperlink ref="A52" display="creating_a_new_driver.md" r:id="rId52"/>
-    <hyperlink ref="A53" display="creating_a_new_filter_driver.md" r:id="rId53"/>
-    <hyperlink ref="A54" display="creating_a_new_software_driver.md" r:id="rId54"/>
-    <hyperlink ref="A55" display="debugging_a_driver.md" r:id="rId55"/>
-    <hyperlink ref="A56" display="deploying_a_driver_to_a_test_computer.md" r:id="rId56"/>
-    <hyperlink ref="A57" display="deployment_properties_for_driver_projects.md" r:id="rId57"/>
-    <hyperlink ref="A58" display="distributing_a_driver_package_win8.md" r:id="rId58"/>
-    <hyperlink ref="A59" display="driver_model_convergence.md" r:id="rId59"/>
-    <hyperlink ref="A60" display="driver_model_settings_properties_for_driver_projects.md" r:id="rId60"/>
-    <hyperlink ref="A61" display="driver_signing_properties.md" r:id="rId61"/>
-    <hyperlink ref="A62" display="driver_verifier_properties_for__driver_projects.md" r:id="rId62"/>
-    <hyperlink ref="A63" display="getting_started_with_universal_drivers.md" r:id="rId63"/>
-    <hyperlink ref="A64" display="how_to_select_and_configure_the_device_fundamental_tests.md" r:id="rId64"/>
-    <hyperlink ref="A65" display="how_to_test_a_driver_at_runtime_from_a_command_prompt.md" r:id="rId65"/>
-    <hyperlink ref="A66" display="how_to_write_a_driver_test_.md" r:id="rId66"/>
-    <hyperlink ref="A67" display="attestation_driver_signing_submission_dashboard.png" r:id="rId67"/>
-    <hyperlink ref="A68" display="b_wes_driversigning_v2.png" r:id="rId68"/>
-    <hyperlink ref="A69" display="ert_test_results.png" r:id="rId69"/>
-    <hyperlink ref="A70" display="MultipleDriversSingleSolution.png" r:id="rId70"/>
-    <hyperlink ref="A71" display="SigningADriver01.png" r:id="rId71"/>
-    <hyperlink ref="A72" display="TargetPlatform.png" r:id="rId72"/>
-    <hyperlink ref="A73" display="VsDrvrPkgProps.png" r:id="rId73"/>
-    <hyperlink ref="A74" display="VsSlnExplorer.png" r:id="rId74"/>
-    <hyperlink ref="A75" display="inf2cat_properties_for_driver_package_projects.md" r:id="rId75"/>
-    <hyperlink ref="A76" display="installing_a_universal_driver.md" r:id="rId76"/>
-    <hyperlink ref="A77" display="Installing_the_Enterprise_WDK.md" r:id="rId77"/>
-    <hyperlink ref="A78" display="installing_the_wdk_build_environment_in_a_lab.md" r:id="rId78"/>
-    <hyperlink ref="A79" display="kmdf_verifier_properties_for_driver_package_projects.md" r:id="rId79"/>
-    <hyperlink ref="A80" display="message_compiler_properties_for_driver_projects.md" r:id="rId80"/>
-    <hyperlink ref="A81" display="mof_compiler_properties_for_driver_projects.md" r:id="rId81"/>
-    <hyperlink ref="A82" display="preparing_a_computer_for_manual_driver_deployment.md" r:id="rId82"/>
-    <hyperlink ref="A83" display="read_the_driver_test_results_log.md" r:id="rId83"/>
-    <hyperlink ref="A84" display="README.md" r:id="rId84"/>
-    <hyperlink ref="A85" display="run_the_hck_test_suites_in_the_wdk.md" r:id="rId85"/>
-    <hyperlink ref="A86" display="signing_a_driver.md" r:id="rId86"/>
-    <hyperlink ref="A87" display="signing_a_driver_during_development_and_testing.md" r:id="rId87"/>
-    <hyperlink ref="A88" display="signing_a_driver_for_public_release.md" r:id="rId88"/>
-    <hyperlink ref="A89" display="stampinf_properties_for_driver_projects.md" r:id="rId89"/>
-    <hyperlink ref="A90" display="strategies_for_testing_drivers_during_development.md" r:id="rId90"/>
-    <hyperlink ref="A91" display="test_a_driver_package.md" r:id="rId91"/>
-    <hyperlink ref="A92" display="testing_a_driver.md" r:id="rId92"/>
-    <hyperlink ref="A93" display="testing_a_driver_at_runtime.md" r:id="rId93"/>
-    <hyperlink ref="A94" display="to_add_test_metadata.md" r:id="rId94"/>
-    <hyperlink ref="A95" display="TOC.md" r:id="rId95"/>
-    <hyperlink ref="A96" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.md" r:id="rId96"/>
-    <hyperlink ref="A97" display="troubleshooting_the_device_fundamental_tests.md" r:id="rId97"/>
-    <hyperlink ref="A98" display="umdf_verifier_properties_for_driver_package_projects.md" r:id="rId98"/>
-    <hyperlink ref="A99" display="using_the_microsoft_c_runtime_with_user_mode_drivers_and_apps.md" r:id="rId99"/>
-    <hyperlink ref="A100" display="validating_universal_drivers.md" r:id="rId100"/>
-    <hyperlink ref="A101" display="visual_studio_driver_development_environment.md" r:id="rId101"/>
-    <hyperlink ref="A102" display="what_happens_when_you_provision_a_computer__wdk_8_0_.md" r:id="rId102"/>
-    <hyperlink ref="A103" display="what_happens_when_you_provision_a_computer__wdk_8_1_.md" r:id="rId103"/>
-    <hyperlink ref="A104" display="windows_10_editions_for_universal_drivers.md" r:id="rId104"/>
-    <hyperlink ref="A105" display="Welcome.md" r:id="rId105"/>
+    <hyperlink ref="A36" display="TOC.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="analyzing_driver_quality_by_using_code_analysis_tools.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="attestation_signing_a_kernel_driver_for_public_release.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="avoiding_floating_point_errors_in_custom_build_environments.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="building_a_driver.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="building_drivers_for_different_versions_of_windows.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="converting_wdk_8_1_projects_to_wdk_10.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="counters_manifest_preprocessor_properties_for_driver_projects.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="create_a_custom_driver_installation_script.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="creating_a_device_metadata_package.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="creating_a_driver_from_existing_source_files.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="creating_a_driver_package.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="creating_a_driver_verification_log.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="creating_a_log_file_for_static_driver_verifier.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="creating_a_log_file_for_the_code_analysis_tool.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="creating_a_new_driver.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="creating_a_new_filter_driver.md" r:id="rId52"/>
+    <hyperlink ref="A53" display="creating_a_new_software_driver.md" r:id="rId53"/>
+    <hyperlink ref="A54" display="debugging_a_driver.md" r:id="rId54"/>
+    <hyperlink ref="A55" display="deploying_a_driver_to_a_test_computer.md" r:id="rId55"/>
+    <hyperlink ref="A56" display="deployment_properties_for_driver_projects.md" r:id="rId56"/>
+    <hyperlink ref="A57" display="distributing_a_driver_package_win8.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="driver_model_convergence.md" r:id="rId58"/>
+    <hyperlink ref="A59" display="driver_model_settings_properties_for_driver_projects.md" r:id="rId59"/>
+    <hyperlink ref="A60" display="driver_signing_properties.md" r:id="rId60"/>
+    <hyperlink ref="A61" display="driver_verifier_properties_for__driver_projects.md" r:id="rId61"/>
+    <hyperlink ref="A62" display="getting_started_with_universal_drivers.md" r:id="rId62"/>
+    <hyperlink ref="A63" display="how_to_select_and_configure_the_device_fundamental_tests.md" r:id="rId63"/>
+    <hyperlink ref="A64" display="how_to_test_a_driver_at_runtime_from_a_command_prompt.md" r:id="rId64"/>
+    <hyperlink ref="A65" display="how_to_write_a_driver_test_.md" r:id="rId65"/>
+    <hyperlink ref="A66" display="attestation_driver_signing_submission_dashboard.png" r:id="rId66"/>
+    <hyperlink ref="A67" display="b_wes_driversigning_v2.png" r:id="rId67"/>
+    <hyperlink ref="A68" display="ert_test_results.png" r:id="rId68"/>
+    <hyperlink ref="A69" display="MultipleDriversSingleSolution.png" r:id="rId69"/>
+    <hyperlink ref="A70" display="SigningADriver01.png" r:id="rId70"/>
+    <hyperlink ref="A71" display="TargetPlatform.png" r:id="rId71"/>
+    <hyperlink ref="A72" display="VsDrvrPkgProps.png" r:id="rId72"/>
+    <hyperlink ref="A73" display="VsSlnExplorer.png" r:id="rId73"/>
+    <hyperlink ref="A74" display="inf2cat_properties_for_driver_package_projects.md" r:id="rId74"/>
+    <hyperlink ref="A75" display="installing_a_universal_driver.md" r:id="rId75"/>
+    <hyperlink ref="A76" display="Installing_the_Enterprise_WDK.md" r:id="rId76"/>
+    <hyperlink ref="A77" display="installing_the_wdk_build_environment_in_a_lab.md" r:id="rId77"/>
+    <hyperlink ref="A78" display="kmdf_verifier_properties_for_driver_package_projects.md" r:id="rId78"/>
+    <hyperlink ref="A79" display="message_compiler_properties_for_driver_projects.md" r:id="rId79"/>
+    <hyperlink ref="A80" display="mof_compiler_properties_for_driver_projects.md" r:id="rId80"/>
+    <hyperlink ref="A81" display="preparing_a_computer_for_manual_driver_deployment.md" r:id="rId81"/>
+    <hyperlink ref="A82" display="read_the_driver_test_results_log.md" r:id="rId82"/>
+    <hyperlink ref="A83" display="README.md" r:id="rId83"/>
+    <hyperlink ref="A84" display="run_the_hck_test_suites_in_the_wdk.md" r:id="rId84"/>
+    <hyperlink ref="A85" display="signing_a_driver.md" r:id="rId85"/>
+    <hyperlink ref="A86" display="signing_a_driver_during_development_and_testing.md" r:id="rId86"/>
+    <hyperlink ref="A87" display="signing_a_driver_for_public_release.md" r:id="rId87"/>
+    <hyperlink ref="A88" display="stampinf_properties_for_driver_projects.md" r:id="rId88"/>
+    <hyperlink ref="A89" display="strategies_for_testing_drivers_during_development.md" r:id="rId89"/>
+    <hyperlink ref="A90" display="test_a_driver_package.md" r:id="rId90"/>
+    <hyperlink ref="A91" display="testing_a_driver.md" r:id="rId91"/>
+    <hyperlink ref="A92" display="testing_a_driver_at_runtime.md" r:id="rId92"/>
+    <hyperlink ref="A93" display="to_add_test_metadata.md" r:id="rId93"/>
+    <hyperlink ref="A94" display="TOC.md" r:id="rId94"/>
+    <hyperlink ref="A95" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.md" r:id="rId95"/>
+    <hyperlink ref="A96" display="troubleshooting_the_device_fundamental_tests.md" r:id="rId96"/>
+    <hyperlink ref="A97" display="umdf_verifier_properties_for_driver_package_projects.md" r:id="rId97"/>
+    <hyperlink ref="A98" display="using_the_microsoft_c_runtime_with_user_mode_drivers_and_apps.md" r:id="rId98"/>
+    <hyperlink ref="A99" display="validating_universal_drivers.md" r:id="rId99"/>
+    <hyperlink ref="A100" display="visual_studio_driver_development_environment.md" r:id="rId100"/>
+    <hyperlink ref="A101" display="what_happens_when_you_provision_a_computer__wdk_8_0_.md" r:id="rId101"/>
+    <hyperlink ref="A102" display="what_happens_when_you_provision_a_computer__wdk_8_1_.md" r:id="rId102"/>
+    <hyperlink ref="A103" display="windows_10_editions_for_universal_drivers.md" r:id="rId103"/>
+    <hyperlink ref="A104" display="Welcome.md" r:id="rId104"/>
+    <hyperlink ref="A105" display="test-xliff-2.md" r:id="rId105"/>
     <hyperlink ref="A106" display=".gitignore" r:id="rId106"/>
     <hyperlink ref="A107" display=".localization-config" r:id="rId107"/>
     <hyperlink ref="A108" display=".openpublishing.build.mdproj" r:id="rId108"/>
@@ -3540,16 +3549,16 @@
         <v>168</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>168</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>131</v>
@@ -3557,25 +3566,25 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G37" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>130</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>131</v>
@@ -3592,7 +3601,7 @@
         <v>172</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>41</v>
@@ -3601,7 +3610,7 @@
         <v>172</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>131</v>
@@ -3615,19 +3624,19 @@
         <v>4</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>131</v>
@@ -3641,19 +3650,19 @@
         <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>131</v>
@@ -3667,19 +3676,19 @@
         <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>131</v>
@@ -3693,19 +3702,19 @@
         <v>4</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>131</v>
@@ -3719,19 +3728,19 @@
         <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>131</v>
@@ -3745,19 +3754,19 @@
         <v>4</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>131</v>
@@ -3771,19 +3780,19 @@
         <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>131</v>
@@ -3797,19 +3806,19 @@
         <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>131</v>
@@ -3823,19 +3832,19 @@
         <v>4</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>131</v>
@@ -3849,19 +3858,19 @@
         <v>4</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>131</v>
@@ -3875,19 +3884,19 @@
         <v>4</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>131</v>
@@ -3901,19 +3910,19 @@
         <v>4</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>131</v>
@@ -3927,19 +3936,19 @@
         <v>4</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>131</v>
@@ -3953,19 +3962,19 @@
         <v>4</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>131</v>
@@ -3979,19 +3988,19 @@
         <v>4</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>131</v>
@@ -4005,19 +4014,19 @@
         <v>4</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>131</v>
@@ -4031,19 +4040,19 @@
         <v>4</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>131</v>
@@ -4057,19 +4066,19 @@
         <v>4</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>131</v>
@@ -4083,19 +4092,19 @@
         <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>131</v>
@@ -4109,19 +4118,19 @@
         <v>4</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>131</v>
@@ -4135,19 +4144,19 @@
         <v>4</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>131</v>
@@ -4161,19 +4170,19 @@
         <v>4</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>131</v>
@@ -4187,19 +4196,19 @@
         <v>4</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>131</v>
@@ -4213,19 +4222,19 @@
         <v>4</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>131</v>
@@ -4239,19 +4248,19 @@
         <v>4</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>131</v>
@@ -4265,19 +4274,19 @@
         <v>4</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>131</v>
@@ -4291,19 +4300,19 @@
         <v>4</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>131</v>
@@ -4317,22 +4326,25 @@
         <v>4</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="67">
@@ -4343,7 +4355,7 @@
         <v>4</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>201</v>
@@ -4352,10 +4364,10 @@
         <v>70</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>135</v>
@@ -4372,7 +4384,7 @@
         <v>4</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>201</v>
@@ -4381,16 +4393,16 @@
         <v>71</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>135</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69">
@@ -4401,7 +4413,7 @@
         <v>4</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>201</v>
@@ -4410,16 +4422,16 @@
         <v>72</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>135</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70">
@@ -4430,7 +4442,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>201</v>
@@ -4439,16 +4451,16 @@
         <v>73</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>135</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71">
@@ -4459,7 +4471,7 @@
         <v>4</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>201</v>
@@ -4468,16 +4480,16 @@
         <v>74</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>135</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72">
@@ -4488,7 +4500,7 @@
         <v>4</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>201</v>
@@ -4497,16 +4509,16 @@
         <v>75</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>135</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73">
@@ -4517,7 +4529,7 @@
         <v>4</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>201</v>
@@ -4526,10 +4538,10 @@
         <v>76</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H73" s="0" t="s">
         <v>135</v>
@@ -4546,25 +4558,22 @@
         <v>4</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>207</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75">
@@ -4575,19 +4584,19 @@
         <v>4</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>131</v>
@@ -4601,19 +4610,19 @@
         <v>4</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>131</v>
@@ -4627,19 +4636,19 @@
         <v>4</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>131</v>
@@ -4653,19 +4662,19 @@
         <v>4</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>131</v>
@@ -4679,19 +4688,19 @@
         <v>4</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>131</v>
@@ -4705,19 +4714,19 @@
         <v>4</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>131</v>
@@ -4731,19 +4740,19 @@
         <v>4</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>131</v>
@@ -4757,19 +4766,19 @@
         <v>4</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>131</v>
@@ -4783,19 +4792,19 @@
         <v>4</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>131</v>
@@ -4809,19 +4818,19 @@
         <v>4</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>131</v>
@@ -4835,19 +4844,19 @@
         <v>4</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H85" s="0" t="s">
         <v>131</v>
@@ -4861,19 +4870,19 @@
         <v>4</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>131</v>
@@ -4887,19 +4896,19 @@
         <v>4</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>90</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>131</v>
@@ -4913,19 +4922,19 @@
         <v>4</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>131</v>
@@ -4939,19 +4948,19 @@
         <v>4</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>131</v>
@@ -4965,19 +4974,19 @@
         <v>4</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>131</v>
@@ -4991,19 +5000,19 @@
         <v>4</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H91" s="0" t="s">
         <v>131</v>
@@ -5017,19 +5026,19 @@
         <v>4</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H92" s="0" t="s">
         <v>131</v>
@@ -5043,19 +5052,19 @@
         <v>4</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H93" s="0" t="s">
         <v>131</v>
@@ -5063,25 +5072,25 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H94" s="0" t="s">
         <v>131</v>
@@ -5089,25 +5098,25 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H95" s="0" t="s">
         <v>131</v>
@@ -5124,16 +5133,16 @@
         <v>235</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>235</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>131</v>
@@ -5147,19 +5156,19 @@
         <v>4</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>131</v>
@@ -5173,19 +5182,19 @@
         <v>4</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>100</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H98" s="0" t="s">
         <v>131</v>
@@ -5199,19 +5208,19 @@
         <v>4</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>131</v>
@@ -5225,19 +5234,19 @@
         <v>4</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>131</v>
@@ -5251,19 +5260,19 @@
         <v>4</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>131</v>
@@ -5277,19 +5286,19 @@
         <v>4</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H102" s="0" t="s">
         <v>131</v>
@@ -5303,19 +5312,19 @@
         <v>4</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>131</v>
@@ -5329,19 +5338,19 @@
         <v>4</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>131</v>
@@ -5352,22 +5361,22 @@
         <v>107</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>243</v>
+        <v>172</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H105" s="0" t="s">
         <v>131</v>
@@ -5381,13 +5390,13 @@
         <v>109</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="107">
@@ -5398,13 +5407,13 @@
         <v>109</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108">
@@ -5415,13 +5424,13 @@
         <v>109</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="109">
@@ -5432,13 +5441,13 @@
         <v>109</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="110">
@@ -5449,13 +5458,13 @@
         <v>109</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="111">
@@ -5466,30 +5475,30 @@
         <v>109</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>109</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="113">
@@ -5500,13 +5509,13 @@
         <v>109</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114">
@@ -5517,13 +5526,13 @@
         <v>109</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="115">
@@ -5534,13 +5543,13 @@
         <v>109</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="116">
@@ -5551,13 +5560,13 @@
         <v>109</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117">
@@ -5568,13 +5577,13 @@
         <v>109</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="118">
@@ -5585,13 +5594,13 @@
         <v>109</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -5732,286 +5741,286 @@
     <hyperlink ref="C35" display="workflow.c81c0151d66bf0be9587301c3f7e2255d13a9e00.zh-cn.xlf" r:id="rId135"/>
     <hyperlink ref="E35" display="workflow.md" r:id="rId136"/>
     <hyperlink ref="F35" display="workflow.c81c0151d66bf0be9587301c3f7e2255d13a9e00.zh-cn.xlf" r:id="rId137"/>
-    <hyperlink ref="A36" display="test-xliff-2.md" r:id="rId138"/>
-    <hyperlink ref="C36" display="attestation_signing_a_kernel_driver_for_public_release.60952bf9330143f0f7f5ec5a32dd4e53f311b511.zh-cn.xlf" r:id="rId139"/>
-    <hyperlink ref="E36" display="attestation_signing_a_kernel_driver_for_public_release.md" r:id="rId140"/>
-    <hyperlink ref="F36" display="attestation_signing_a_kernel_driver_for_public_release.60952bf9330143f0f7f5ec5a32dd4e53f311b511.zh-cn.xlf" r:id="rId141"/>
-    <hyperlink ref="A37" display="TOC.md" r:id="rId142"/>
-    <hyperlink ref="C37" display="TOC.a9ee67cb4f35ab2cb1a9b412181346e45899f313.zh-cn.xlf" r:id="rId143"/>
-    <hyperlink ref="E37" display="TOC.md" r:id="rId144"/>
-    <hyperlink ref="F37" display="TOC.a9ee67cb4f35ab2cb1a9b412181346e45899f313.zh-cn.xlf" r:id="rId145"/>
-    <hyperlink ref="A38" display="analyzing_driver_quality_by_using_code_analysis_tools.md" r:id="rId146"/>
-    <hyperlink ref="C38" display="analyzing_driver_quality_by_using_code_analysis_tools.fa3d557dd7b16334872b19b7d288e2179b421f36.zh-cn.xlf" r:id="rId147"/>
-    <hyperlink ref="E38" display="analyzing_driver_quality_by_using_code_analysis_tools.md" r:id="rId148"/>
-    <hyperlink ref="F38" display="analyzing_driver_quality_by_using_code_analysis_tools.fa3d557dd7b16334872b19b7d288e2179b421f36.zh-cn.xlf" r:id="rId149"/>
-    <hyperlink ref="A39" display="attestation_signing_a_kernel_driver_for_public_release.md" r:id="rId150"/>
-    <hyperlink ref="C39" display="attestation_signing_a_kernel_driver_for_public_release.60952bf9330143f0f7f5ec5a32dd4e53f311b511.zh-cn.xlf" r:id="rId151"/>
-    <hyperlink ref="E39" display="attestation_signing_a_kernel_driver_for_public_release.md" r:id="rId152"/>
-    <hyperlink ref="F39" display="attestation_signing_a_kernel_driver_for_public_release.60952bf9330143f0f7f5ec5a32dd4e53f311b511.zh-cn.xlf" r:id="rId153"/>
-    <hyperlink ref="A40" display="avoiding_floating_point_errors_in_custom_build_environments.md" r:id="rId154"/>
-    <hyperlink ref="C40" display="avoiding_floating_point_errors_in_custom_build_environments.cee0e6d04ff683ed75853cbaefdb3cb80a9ba8b9.zh-cn.xlf" r:id="rId155"/>
-    <hyperlink ref="E40" display="avoiding_floating_point_errors_in_custom_build_environments.md" r:id="rId156"/>
-    <hyperlink ref="F40" display="avoiding_floating_point_errors_in_custom_build_environments.cee0e6d04ff683ed75853cbaefdb3cb80a9ba8b9.zh-cn.xlf" r:id="rId157"/>
-    <hyperlink ref="A41" display="building_a_driver.md" r:id="rId158"/>
-    <hyperlink ref="C41" display="building_a_driver.cbc09280250e99cd2659c1df5d0ad4fc537f9081.zh-cn.xlf" r:id="rId159"/>
-    <hyperlink ref="E41" display="building_a_driver.md" r:id="rId160"/>
-    <hyperlink ref="F41" display="building_a_driver.cbc09280250e99cd2659c1df5d0ad4fc537f9081.zh-cn.xlf" r:id="rId161"/>
-    <hyperlink ref="A42" display="building_drivers_for_different_versions_of_windows.md" r:id="rId162"/>
-    <hyperlink ref="C42" display="building_drivers_for_different_versions_of_windows.a7c7436aaf4de0b7c53827a0fa712ca3bde1a84c.zh-cn.xlf" r:id="rId163"/>
-    <hyperlink ref="E42" display="building_drivers_for_different_versions_of_windows.md" r:id="rId164"/>
-    <hyperlink ref="F42" display="building_drivers_for_different_versions_of_windows.a7c7436aaf4de0b7c53827a0fa712ca3bde1a84c.zh-cn.xlf" r:id="rId165"/>
-    <hyperlink ref="A43" display="converting_wdk_8_1_projects_to_wdk_10.md" r:id="rId166"/>
-    <hyperlink ref="C43" display="converting_wdk_8_1_projects_to_wdk_10.474e5e2dbbaf162065af3c72ae497364a406ed87.zh-cn.xlf" r:id="rId167"/>
-    <hyperlink ref="E43" display="converting_wdk_8_1_projects_to_wdk_10.md" r:id="rId168"/>
-    <hyperlink ref="F43" display="converting_wdk_8_1_projects_to_wdk_10.474e5e2dbbaf162065af3c72ae497364a406ed87.zh-cn.xlf" r:id="rId169"/>
-    <hyperlink ref="A44" display="counters_manifest_preprocessor_properties_for_driver_projects.md" r:id="rId170"/>
-    <hyperlink ref="C44" display="counters_manifest_preprocessor_properties_for_driver_projects.eeeab85b33933cf108a80d82f2b8adc624e8e2ed.zh-cn.xlf" r:id="rId171"/>
-    <hyperlink ref="E44" display="counters_manifest_preprocessor_properties_for_driver_projects.md" r:id="rId172"/>
-    <hyperlink ref="F44" display="counters_manifest_preprocessor_properties_for_driver_projects.eeeab85b33933cf108a80d82f2b8adc624e8e2ed.zh-cn.xlf" r:id="rId173"/>
-    <hyperlink ref="A45" display="create_a_custom_driver_installation_script.md" r:id="rId174"/>
-    <hyperlink ref="C45" display="create_a_custom_driver_installation_script.357dbb9021e614bca1c5fa19d9777bca3fffefb9.zh-cn.xlf" r:id="rId175"/>
-    <hyperlink ref="E45" display="create_a_custom_driver_installation_script.md" r:id="rId176"/>
-    <hyperlink ref="F45" display="create_a_custom_driver_installation_script.357dbb9021e614bca1c5fa19d9777bca3fffefb9.zh-cn.xlf" r:id="rId177"/>
-    <hyperlink ref="A46" display="creating_a_device_metadata_package.md" r:id="rId178"/>
-    <hyperlink ref="C46" display="creating_a_device_metadata_package.d2e96cda60fffef1c4ac7d8c69c5442ec20ed839.zh-cn.xlf" r:id="rId179"/>
-    <hyperlink ref="E46" display="creating_a_device_metadata_package.md" r:id="rId180"/>
-    <hyperlink ref="F46" display="creating_a_device_metadata_package.d2e96cda60fffef1c4ac7d8c69c5442ec20ed839.zh-cn.xlf" r:id="rId181"/>
-    <hyperlink ref="A47" display="creating_a_driver_from_existing_source_files.md" r:id="rId182"/>
-    <hyperlink ref="C47" display="creating_a_driver_from_existing_source_files.21b428e353639aad4f789fbce2c093e8dafd9dc2.zh-cn.xlf" r:id="rId183"/>
-    <hyperlink ref="E47" display="creating_a_driver_from_existing_source_files.md" r:id="rId184"/>
-    <hyperlink ref="F47" display="creating_a_driver_from_existing_source_files.21b428e353639aad4f789fbce2c093e8dafd9dc2.zh-cn.xlf" r:id="rId185"/>
-    <hyperlink ref="A48" display="creating_a_driver_package.md" r:id="rId186"/>
-    <hyperlink ref="C48" display="creating_a_driver_package.73e06db2ddf1087ccf602c36d1ff122837314e31.zh-cn.xlf" r:id="rId187"/>
-    <hyperlink ref="E48" display="creating_a_driver_package.md" r:id="rId188"/>
-    <hyperlink ref="F48" display="creating_a_driver_package.73e06db2ddf1087ccf602c36d1ff122837314e31.zh-cn.xlf" r:id="rId189"/>
-    <hyperlink ref="A49" display="creating_a_driver_verification_log.md" r:id="rId190"/>
-    <hyperlink ref="C49" display="creating_a_driver_verification_log.96eff15d7e468242b14cf46aedc5527782908604.zh-cn.xlf" r:id="rId191"/>
-    <hyperlink ref="E49" display="creating_a_driver_verification_log.md" r:id="rId192"/>
-    <hyperlink ref="F49" display="creating_a_driver_verification_log.96eff15d7e468242b14cf46aedc5527782908604.zh-cn.xlf" r:id="rId193"/>
-    <hyperlink ref="A50" display="creating_a_log_file_for_static_driver_verifier.md" r:id="rId194"/>
-    <hyperlink ref="C50" display="creating_a_log_file_for_static_driver_verifier.c33f99351b08661a50d5fd3977e69e4a534e5dbf.zh-cn.xlf" r:id="rId195"/>
-    <hyperlink ref="E50" display="creating_a_log_file_for_static_driver_verifier.md" r:id="rId196"/>
-    <hyperlink ref="F50" display="creating_a_log_file_for_static_driver_verifier.c33f99351b08661a50d5fd3977e69e4a534e5dbf.zh-cn.xlf" r:id="rId197"/>
-    <hyperlink ref="A51" display="creating_a_log_file_for_the_code_analysis_tool.md" r:id="rId198"/>
-    <hyperlink ref="C51" display="creating_a_log_file_for_the_code_analysis_tool.9af7d60829f22ab6d9d9660d5f3fe961d7f765df.zh-cn.xlf" r:id="rId199"/>
-    <hyperlink ref="E51" display="creating_a_log_file_for_the_code_analysis_tool.md" r:id="rId200"/>
-    <hyperlink ref="F51" display="creating_a_log_file_for_the_code_analysis_tool.9af7d60829f22ab6d9d9660d5f3fe961d7f765df.zh-cn.xlf" r:id="rId201"/>
-    <hyperlink ref="A52" display="creating_a_new_driver.md" r:id="rId202"/>
-    <hyperlink ref="C52" display="creating_a_new_driver.2beda9848f2913454930779b42c798c7a14e4b30.zh-cn.xlf" r:id="rId203"/>
-    <hyperlink ref="E52" display="creating_a_new_driver.md" r:id="rId204"/>
-    <hyperlink ref="F52" display="creating_a_new_driver.2beda9848f2913454930779b42c798c7a14e4b30.zh-cn.xlf" r:id="rId205"/>
-    <hyperlink ref="A53" display="creating_a_new_filter_driver.md" r:id="rId206"/>
-    <hyperlink ref="C53" display="creating_a_new_filter_driver.d70f3a12da3192fe8e7ff943a58111b6eaaff602.zh-cn.xlf" r:id="rId207"/>
-    <hyperlink ref="E53" display="creating_a_new_filter_driver.md" r:id="rId208"/>
-    <hyperlink ref="F53" display="creating_a_new_filter_driver.d70f3a12da3192fe8e7ff943a58111b6eaaff602.zh-cn.xlf" r:id="rId209"/>
-    <hyperlink ref="A54" display="creating_a_new_software_driver.md" r:id="rId210"/>
-    <hyperlink ref="C54" display="creating_a_new_software_driver.080b52a3e470fa06b9cbbef274ae2a9a61c3524d.zh-cn.xlf" r:id="rId211"/>
-    <hyperlink ref="E54" display="creating_a_new_software_driver.md" r:id="rId212"/>
-    <hyperlink ref="F54" display="creating_a_new_software_driver.080b52a3e470fa06b9cbbef274ae2a9a61c3524d.zh-cn.xlf" r:id="rId213"/>
-    <hyperlink ref="A55" display="debugging_a_driver.md" r:id="rId214"/>
-    <hyperlink ref="C55" display="debugging_a_driver.d0f46f354896826a092820cf39261d4f410dbeed.zh-cn.xlf" r:id="rId215"/>
-    <hyperlink ref="E55" display="debugging_a_driver.md" r:id="rId216"/>
-    <hyperlink ref="F55" display="debugging_a_driver.d0f46f354896826a092820cf39261d4f410dbeed.zh-cn.xlf" r:id="rId217"/>
-    <hyperlink ref="A56" display="deploying_a_driver_to_a_test_computer.md" r:id="rId218"/>
-    <hyperlink ref="C56" display="deploying_a_driver_to_a_test_computer.5d1d0565bb41ea5d115f7a9b856ba02546d36a95.zh-cn.xlf" r:id="rId219"/>
-    <hyperlink ref="E56" display="deploying_a_driver_to_a_test_computer.md" r:id="rId220"/>
-    <hyperlink ref="F56" display="deploying_a_driver_to_a_test_computer.5d1d0565bb41ea5d115f7a9b856ba02546d36a95.zh-cn.xlf" r:id="rId221"/>
-    <hyperlink ref="A57" display="deployment_properties_for_driver_projects.md" r:id="rId222"/>
-    <hyperlink ref="C57" display="deployment_properties_for_driver_projects.0608b2ac61637bfa80027bab956bf36221bc7bbc.zh-cn.xlf" r:id="rId223"/>
-    <hyperlink ref="E57" display="deployment_properties_for_driver_projects.md" r:id="rId224"/>
-    <hyperlink ref="F57" display="deployment_properties_for_driver_projects.0608b2ac61637bfa80027bab956bf36221bc7bbc.zh-cn.xlf" r:id="rId225"/>
-    <hyperlink ref="A58" display="distributing_a_driver_package_win8.md" r:id="rId226"/>
-    <hyperlink ref="C58" display="distributing_a_driver_package_win8.12755b11f7f467f14f730a8c28f8eaa90468c4eb.zh-cn.xlf" r:id="rId227"/>
-    <hyperlink ref="E58" display="distributing_a_driver_package_win8.md" r:id="rId228"/>
-    <hyperlink ref="F58" display="distributing_a_driver_package_win8.12755b11f7f467f14f730a8c28f8eaa90468c4eb.zh-cn.xlf" r:id="rId229"/>
-    <hyperlink ref="A59" display="driver_model_convergence.md" r:id="rId230"/>
-    <hyperlink ref="C59" display="driver_model_convergence.a1a2d739cd3547a1e600d802ab77a42dc77bc286.zh-cn.xlf" r:id="rId231"/>
-    <hyperlink ref="E59" display="driver_model_convergence.md" r:id="rId232"/>
-    <hyperlink ref="F59" display="driver_model_convergence.a1a2d739cd3547a1e600d802ab77a42dc77bc286.zh-cn.xlf" r:id="rId233"/>
-    <hyperlink ref="A60" display="driver_model_settings_properties_for_driver_projects.md" r:id="rId234"/>
-    <hyperlink ref="C60" display="driver_model_settings_properties_for_driver_projects.fcf119a52613a74a749a980980ec95063a23b0a1.zh-cn.xlf" r:id="rId235"/>
-    <hyperlink ref="E60" display="driver_model_settings_properties_for_driver_projects.md" r:id="rId236"/>
-    <hyperlink ref="F60" display="driver_model_settings_properties_for_driver_projects.fcf119a52613a74a749a980980ec95063a23b0a1.zh-cn.xlf" r:id="rId237"/>
-    <hyperlink ref="A61" display="driver_signing_properties.md" r:id="rId238"/>
-    <hyperlink ref="C61" display="driver_signing_properties.cb7fe7fb67183b04c9e6c6bfdb1d289dd5729a80.zh-cn.xlf" r:id="rId239"/>
-    <hyperlink ref="E61" display="driver_signing_properties.md" r:id="rId240"/>
-    <hyperlink ref="F61" display="driver_signing_properties.cb7fe7fb67183b04c9e6c6bfdb1d289dd5729a80.zh-cn.xlf" r:id="rId241"/>
-    <hyperlink ref="A62" display="driver_verifier_properties_for__driver_projects.md" r:id="rId242"/>
-    <hyperlink ref="C62" display="driver_verifier_properties_for__driver_projects.8af174283d96ea6ec207ff10ade1775c8f05918b.zh-cn.xlf" r:id="rId243"/>
-    <hyperlink ref="E62" display="driver_verifier_properties_for__driver_projects.md" r:id="rId244"/>
-    <hyperlink ref="F62" display="driver_verifier_properties_for__driver_projects.8af174283d96ea6ec207ff10ade1775c8f05918b.zh-cn.xlf" r:id="rId245"/>
-    <hyperlink ref="A63" display="getting_started_with_universal_drivers.md" r:id="rId246"/>
-    <hyperlink ref="C63" display="getting_started_with_universal_drivers.f719b648b017e312575ebdca030512f0c5325b94.zh-cn.xlf" r:id="rId247"/>
-    <hyperlink ref="E63" display="getting_started_with_universal_drivers.md" r:id="rId248"/>
-    <hyperlink ref="F63" display="getting_started_with_universal_drivers.f719b648b017e312575ebdca030512f0c5325b94.zh-cn.xlf" r:id="rId249"/>
-    <hyperlink ref="A64" display="how_to_select_and_configure_the_device_fundamental_tests.md" r:id="rId250"/>
-    <hyperlink ref="C64" display="how_to_select_and_configure_the_device_fundamental_tests.12af8415bd7bce765f79bc6a510ea434fdd37296.zh-cn.xlf" r:id="rId251"/>
-    <hyperlink ref="E64" display="how_to_select_and_configure_the_device_fundamental_tests.md" r:id="rId252"/>
-    <hyperlink ref="F64" display="how_to_select_and_configure_the_device_fundamental_tests.12af8415bd7bce765f79bc6a510ea434fdd37296.zh-cn.xlf" r:id="rId253"/>
-    <hyperlink ref="A65" display="how_to_test_a_driver_at_runtime_from_a_command_prompt.md" r:id="rId254"/>
-    <hyperlink ref="C65" display="how_to_test_a_driver_at_runtime_from_a_command_prompt.dd9b45b531d935ce5ab79c83e50b2d632e3e16fa.zh-cn.xlf" r:id="rId255"/>
-    <hyperlink ref="E65" display="how_to_test_a_driver_at_runtime_from_a_command_prompt.md" r:id="rId256"/>
-    <hyperlink ref="F65" display="how_to_test_a_driver_at_runtime_from_a_command_prompt.dd9b45b531d935ce5ab79c83e50b2d632e3e16fa.zh-cn.xlf" r:id="rId257"/>
-    <hyperlink ref="A66" display="how_to_write_a_driver_test_.md" r:id="rId258"/>
-    <hyperlink ref="C66" display="how_to_write_a_driver_test_.61f137f1ad3610a554d2e28e0410d98bfb985887.zh-cn.xlf" r:id="rId259"/>
-    <hyperlink ref="E66" display="how_to_write_a_driver_test_.md" r:id="rId260"/>
-    <hyperlink ref="F66" display="how_to_write_a_driver_test_.61f137f1ad3610a554d2e28e0410d98bfb985887.zh-cn.xlf" r:id="rId261"/>
-    <hyperlink ref="A67" display="attestation_driver_signing_submission_dashboard.png" r:id="rId262"/>
-    <hyperlink ref="C67" display="e0f09dec7a25d3016140c132c7e6f0411589b8f3.png" r:id="rId263"/>
-    <hyperlink ref="E67" display="attestation_driver_signing_submission_dashboard.png" r:id="rId264"/>
-    <hyperlink ref="F67" display="e0f09dec7a25d3016140c132c7e6f0411589b8f3.png" r:id="rId265"/>
-    <hyperlink ref="A68" display="b_wes_driversigning_v2.png" r:id="rId266"/>
-    <hyperlink ref="C68" display="21987b89a2bd6120f2fbb8084c822d6cf0f5b73e.png" r:id="rId267"/>
-    <hyperlink ref="E68" display="b_wes_driversigning_v2.png" r:id="rId268"/>
-    <hyperlink ref="F68" display="21987b89a2bd6120f2fbb8084c822d6cf0f5b73e.png" r:id="rId269"/>
-    <hyperlink ref="A69" display="ert_test_results.png" r:id="rId270"/>
-    <hyperlink ref="C69" display="df36e47e5bdc8ec928da08d1e7e8f66d7f421837.png" r:id="rId271"/>
-    <hyperlink ref="E69" display="ert_test_results.png" r:id="rId272"/>
-    <hyperlink ref="F69" display="df36e47e5bdc8ec928da08d1e7e8f66d7f421837.png" r:id="rId273"/>
-    <hyperlink ref="A70" display="MultipleDriversSingleSolution.png" r:id="rId274"/>
-    <hyperlink ref="C70" display="b4d01e34c4ef81ab40804f4cf5b6981d2cdd91bd.png" r:id="rId275"/>
-    <hyperlink ref="E70" display="MultipleDriversSingleSolution.png" r:id="rId276"/>
-    <hyperlink ref="F70" display="b4d01e34c4ef81ab40804f4cf5b6981d2cdd91bd.png" r:id="rId277"/>
-    <hyperlink ref="A71" display="SigningADriver01.png" r:id="rId278"/>
-    <hyperlink ref="C71" display="95f73079b57688206bf3238e1a509f0b81ba8da2.png" r:id="rId279"/>
-    <hyperlink ref="E71" display="SigningADriver01.png" r:id="rId280"/>
-    <hyperlink ref="F71" display="95f73079b57688206bf3238e1a509f0b81ba8da2.png" r:id="rId281"/>
-    <hyperlink ref="A72" display="TargetPlatform.png" r:id="rId282"/>
-    <hyperlink ref="C72" display="3ce2fdf00618bcc50d2d3b9454a1c522096e9053.png" r:id="rId283"/>
-    <hyperlink ref="E72" display="TargetPlatform.png" r:id="rId284"/>
-    <hyperlink ref="F72" display="3ce2fdf00618bcc50d2d3b9454a1c522096e9053.png" r:id="rId285"/>
-    <hyperlink ref="A73" display="VsDrvrPkgProps.png" r:id="rId286"/>
-    <hyperlink ref="C73" display="65302587cbc9b4aa1c3633df61751962844f9e2c.png" r:id="rId287"/>
-    <hyperlink ref="E73" display="VsDrvrPkgProps.png" r:id="rId288"/>
-    <hyperlink ref="F73" display="65302587cbc9b4aa1c3633df61751962844f9e2c.png" r:id="rId289"/>
-    <hyperlink ref="A74" display="VsSlnExplorer.png" r:id="rId290"/>
-    <hyperlink ref="C74" display="bd0c6c5437446ea0c01d45fd1049fff8f8b3790c.png" r:id="rId291"/>
-    <hyperlink ref="E74" display="VsSlnExplorer.png" r:id="rId292"/>
-    <hyperlink ref="F74" display="bd0c6c5437446ea0c01d45fd1049fff8f8b3790c.png" r:id="rId293"/>
-    <hyperlink ref="A75" display="inf2cat_properties_for_driver_package_projects.md" r:id="rId294"/>
-    <hyperlink ref="C75" display="inf2cat_properties_for_driver_package_projects.b6ddd3185a2c07176103bc47e341f746b0f23082.zh-cn.xlf" r:id="rId295"/>
-    <hyperlink ref="E75" display="inf2cat_properties_for_driver_package_projects.md" r:id="rId296"/>
-    <hyperlink ref="F75" display="inf2cat_properties_for_driver_package_projects.b6ddd3185a2c07176103bc47e341f746b0f23082.zh-cn.xlf" r:id="rId297"/>
-    <hyperlink ref="A76" display="installing_a_universal_driver.md" r:id="rId298"/>
-    <hyperlink ref="C76" display="installing_a_universal_driver.b7a0455a19eec512588540d32d294dc4dc588629.zh-cn.xlf" r:id="rId299"/>
-    <hyperlink ref="E76" display="installing_a_universal_driver.md" r:id="rId300"/>
-    <hyperlink ref="F76" display="installing_a_universal_driver.b7a0455a19eec512588540d32d294dc4dc588629.zh-cn.xlf" r:id="rId301"/>
-    <hyperlink ref="A77" display="Installing_the_Enterprise_WDK.md" r:id="rId302"/>
-    <hyperlink ref="C77" display="Installing_the_Enterprise_WDK.52bff242f4316ede62303abfe9b38068827b4926.zh-cn.xlf" r:id="rId303"/>
-    <hyperlink ref="E77" display="Installing_the_Enterprise_WDK.md" r:id="rId304"/>
-    <hyperlink ref="F77" display="Installing_the_Enterprise_WDK.52bff242f4316ede62303abfe9b38068827b4926.zh-cn.xlf" r:id="rId305"/>
-    <hyperlink ref="A78" display="installing_the_wdk_build_environment_in_a_lab.md" r:id="rId306"/>
-    <hyperlink ref="C78" display="installing_the_wdk_build_environment_in_a_lab.4b0d0259f015b7af204488eb719a7cd8fdad089d.zh-cn.xlf" r:id="rId307"/>
-    <hyperlink ref="E78" display="installing_the_wdk_build_environment_in_a_lab.md" r:id="rId308"/>
-    <hyperlink ref="F78" display="installing_the_wdk_build_environment_in_a_lab.4b0d0259f015b7af204488eb719a7cd8fdad089d.zh-cn.xlf" r:id="rId309"/>
-    <hyperlink ref="A79" display="kmdf_verifier_properties_for_driver_package_projects.md" r:id="rId310"/>
-    <hyperlink ref="C79" display="kmdf_verifier_properties_for_driver_package_projects.6de1407e3bb459c6c459466f7a405125c1537873.zh-cn.xlf" r:id="rId311"/>
-    <hyperlink ref="E79" display="kmdf_verifier_properties_for_driver_package_projects.md" r:id="rId312"/>
-    <hyperlink ref="F79" display="kmdf_verifier_properties_for_driver_package_projects.6de1407e3bb459c6c459466f7a405125c1537873.zh-cn.xlf" r:id="rId313"/>
-    <hyperlink ref="A80" display="message_compiler_properties_for_driver_projects.md" r:id="rId314"/>
-    <hyperlink ref="C80" display="message_compiler_properties_for_driver_projects.3f85a4a66d609368eb1e66eea78b63ae5f6c1b5b.zh-cn.xlf" r:id="rId315"/>
-    <hyperlink ref="E80" display="message_compiler_properties_for_driver_projects.md" r:id="rId316"/>
-    <hyperlink ref="F80" display="message_compiler_properties_for_driver_projects.3f85a4a66d609368eb1e66eea78b63ae5f6c1b5b.zh-cn.xlf" r:id="rId317"/>
-    <hyperlink ref="A81" display="mof_compiler_properties_for_driver_projects.md" r:id="rId318"/>
-    <hyperlink ref="C81" display="mof_compiler_properties_for_driver_projects.b84cd2cc7370511be671c43efa7c43bac0f3de27.zh-cn.xlf" r:id="rId319"/>
-    <hyperlink ref="E81" display="mof_compiler_properties_for_driver_projects.md" r:id="rId320"/>
-    <hyperlink ref="F81" display="mof_compiler_properties_for_driver_projects.b84cd2cc7370511be671c43efa7c43bac0f3de27.zh-cn.xlf" r:id="rId321"/>
-    <hyperlink ref="A82" display="preparing_a_computer_for_manual_driver_deployment.md" r:id="rId322"/>
-    <hyperlink ref="C82" display="preparing_a_computer_for_manual_driver_deployment.51ad54b679016cd1d0c801b7c7f7b9ab197d661d.zh-cn.xlf" r:id="rId323"/>
-    <hyperlink ref="E82" display="preparing_a_computer_for_manual_driver_deployment.md" r:id="rId324"/>
-    <hyperlink ref="F82" display="preparing_a_computer_for_manual_driver_deployment.51ad54b679016cd1d0c801b7c7f7b9ab197d661d.zh-cn.xlf" r:id="rId325"/>
-    <hyperlink ref="A83" display="read_the_driver_test_results_log.md" r:id="rId326"/>
-    <hyperlink ref="C83" display="read_the_driver_test_results_log.eb789dceaf151302de89217fe530e346162f78b8.zh-cn.xlf" r:id="rId327"/>
-    <hyperlink ref="E83" display="read_the_driver_test_results_log.md" r:id="rId328"/>
-    <hyperlink ref="F83" display="read_the_driver_test_results_log.eb789dceaf151302de89217fe530e346162f78b8.zh-cn.xlf" r:id="rId329"/>
-    <hyperlink ref="A84" display="README.md" r:id="rId330"/>
-    <hyperlink ref="C84" display="README.61953ed54565669063acc19192c50e7fa0b2d6c5.zh-cn.xlf" r:id="rId331"/>
-    <hyperlink ref="E84" display="README.md" r:id="rId332"/>
-    <hyperlink ref="F84" display="README.61953ed54565669063acc19192c50e7fa0b2d6c5.zh-cn.xlf" r:id="rId333"/>
-    <hyperlink ref="A85" display="run_the_hck_test_suites_in_the_wdk.md" r:id="rId334"/>
-    <hyperlink ref="C85" display="run_the_hck_test_suites_in_the_wdk.626ab9e426be669c2b7872664e5b36e04a040e48.zh-cn.xlf" r:id="rId335"/>
-    <hyperlink ref="E85" display="run_the_hck_test_suites_in_the_wdk.md" r:id="rId336"/>
-    <hyperlink ref="F85" display="run_the_hck_test_suites_in_the_wdk.626ab9e426be669c2b7872664e5b36e04a040e48.zh-cn.xlf" r:id="rId337"/>
-    <hyperlink ref="A86" display="signing_a_driver.md" r:id="rId338"/>
-    <hyperlink ref="C86" display="signing_a_driver.d8f891ef3713e655606ee7c5f10708fd6b1cad77.zh-cn.xlf" r:id="rId339"/>
-    <hyperlink ref="E86" display="signing_a_driver.md" r:id="rId340"/>
-    <hyperlink ref="F86" display="signing_a_driver.d8f891ef3713e655606ee7c5f10708fd6b1cad77.zh-cn.xlf" r:id="rId341"/>
-    <hyperlink ref="A87" display="signing_a_driver_during_development_and_testing.md" r:id="rId342"/>
-    <hyperlink ref="C87" display="signing_a_driver_during_development_and_testing.81a60998378a6f28726d548997445d60ddbfcb20.zh-cn.xlf" r:id="rId343"/>
-    <hyperlink ref="E87" display="signing_a_driver_during_development_and_testing.md" r:id="rId344"/>
-    <hyperlink ref="F87" display="signing_a_driver_during_development_and_testing.81a60998378a6f28726d548997445d60ddbfcb20.zh-cn.xlf" r:id="rId345"/>
-    <hyperlink ref="A88" display="signing_a_driver_for_public_release.md" r:id="rId346"/>
-    <hyperlink ref="C88" display="signing_a_driver_for_public_release.0493fdc06d8757a97e7a3d5b6b456d0f1b2ece55.zh-cn.xlf" r:id="rId347"/>
-    <hyperlink ref="E88" display="signing_a_driver_for_public_release.md" r:id="rId348"/>
-    <hyperlink ref="F88" display="signing_a_driver_for_public_release.0493fdc06d8757a97e7a3d5b6b456d0f1b2ece55.zh-cn.xlf" r:id="rId349"/>
-    <hyperlink ref="A89" display="stampinf_properties_for_driver_projects.md" r:id="rId350"/>
-    <hyperlink ref="C89" display="stampinf_properties_for_driver_projects.2326d09cab960412f419e514a8f362ce1b3a1baf.zh-cn.xlf" r:id="rId351"/>
-    <hyperlink ref="E89" display="stampinf_properties_for_driver_projects.md" r:id="rId352"/>
-    <hyperlink ref="F89" display="stampinf_properties_for_driver_projects.2326d09cab960412f419e514a8f362ce1b3a1baf.zh-cn.xlf" r:id="rId353"/>
-    <hyperlink ref="A90" display="strategies_for_testing_drivers_during_development.md" r:id="rId354"/>
-    <hyperlink ref="C90" display="strategies_for_testing_drivers_during_development.16bcb49fb4d79448be1c3bead0b002ad114c8071.zh-cn.xlf" r:id="rId355"/>
-    <hyperlink ref="E90" display="strategies_for_testing_drivers_during_development.md" r:id="rId356"/>
-    <hyperlink ref="F90" display="strategies_for_testing_drivers_during_development.16bcb49fb4d79448be1c3bead0b002ad114c8071.zh-cn.xlf" r:id="rId357"/>
-    <hyperlink ref="A91" display="test_a_driver_package.md" r:id="rId358"/>
-    <hyperlink ref="C91" display="test_a_driver_package.d17f8c0f32052a7cd3e7f2b181d1976478f5ae51.zh-cn.xlf" r:id="rId359"/>
-    <hyperlink ref="E91" display="test_a_driver_package.md" r:id="rId360"/>
-    <hyperlink ref="F91" display="test_a_driver_package.d17f8c0f32052a7cd3e7f2b181d1976478f5ae51.zh-cn.xlf" r:id="rId361"/>
-    <hyperlink ref="A92" display="testing_a_driver.md" r:id="rId362"/>
-    <hyperlink ref="C92" display="testing_a_driver.094134d3f100ae97179f8b35217317ca1dd92543.zh-cn.xlf" r:id="rId363"/>
-    <hyperlink ref="E92" display="testing_a_driver.md" r:id="rId364"/>
-    <hyperlink ref="F92" display="testing_a_driver.094134d3f100ae97179f8b35217317ca1dd92543.zh-cn.xlf" r:id="rId365"/>
-    <hyperlink ref="A93" display="testing_a_driver_at_runtime.md" r:id="rId366"/>
-    <hyperlink ref="C93" display="testing_a_driver_at_runtime.7297ee08eda57f78f10cb96021bb26e1b26031cb.zh-cn.xlf" r:id="rId367"/>
-    <hyperlink ref="E93" display="testing_a_driver_at_runtime.md" r:id="rId368"/>
-    <hyperlink ref="F93" display="testing_a_driver_at_runtime.7297ee08eda57f78f10cb96021bb26e1b26031cb.zh-cn.xlf" r:id="rId369"/>
-    <hyperlink ref="A94" display="to_add_test_metadata.md" r:id="rId370"/>
-    <hyperlink ref="C94" display="to_add_test_metadata.5628c4aeece116648c1aa37d87b85a14b59bc8f8.zh-cn.xlf" r:id="rId371"/>
-    <hyperlink ref="E94" display="to_add_test_metadata.md" r:id="rId372"/>
-    <hyperlink ref="F94" display="to_add_test_metadata.5628c4aeece116648c1aa37d87b85a14b59bc8f8.zh-cn.xlf" r:id="rId373"/>
-    <hyperlink ref="A95" display="TOC.md" r:id="rId374"/>
-    <hyperlink ref="C95" display="TOC.18945f002d8614ade84dd70a7a3a886036563906.zh-cn.xlf" r:id="rId375"/>
-    <hyperlink ref="E95" display="TOC.md" r:id="rId376"/>
-    <hyperlink ref="F95" display="TOC.18945f002d8614ade84dd70a7a3a886036563906.zh-cn.xlf" r:id="rId377"/>
-    <hyperlink ref="A96" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.md" r:id="rId378"/>
+    <hyperlink ref="A36" display="TOC.md" r:id="rId138"/>
+    <hyperlink ref="C36" display="TOC.a9ee67cb4f35ab2cb1a9b412181346e45899f313.zh-cn.xlf" r:id="rId139"/>
+    <hyperlink ref="E36" display="TOC.md" r:id="rId140"/>
+    <hyperlink ref="F36" display="TOC.a9ee67cb4f35ab2cb1a9b412181346e45899f313.zh-cn.xlf" r:id="rId141"/>
+    <hyperlink ref="A37" display="analyzing_driver_quality_by_using_code_analysis_tools.md" r:id="rId142"/>
+    <hyperlink ref="C37" display="analyzing_driver_quality_by_using_code_analysis_tools.fa3d557dd7b16334872b19b7d288e2179b421f36.zh-cn.xlf" r:id="rId143"/>
+    <hyperlink ref="E37" display="analyzing_driver_quality_by_using_code_analysis_tools.md" r:id="rId144"/>
+    <hyperlink ref="F37" display="analyzing_driver_quality_by_using_code_analysis_tools.fa3d557dd7b16334872b19b7d288e2179b421f36.zh-cn.xlf" r:id="rId145"/>
+    <hyperlink ref="A38" display="attestation_signing_a_kernel_driver_for_public_release.md" r:id="rId146"/>
+    <hyperlink ref="C38" display="attestation_signing_a_kernel_driver_for_public_release.60952bf9330143f0f7f5ec5a32dd4e53f311b511.zh-cn.xlf" r:id="rId147"/>
+    <hyperlink ref="E38" display="attestation_signing_a_kernel_driver_for_public_release.md" r:id="rId148"/>
+    <hyperlink ref="F38" display="attestation_signing_a_kernel_driver_for_public_release.60952bf9330143f0f7f5ec5a32dd4e53f311b511.zh-cn.xlf" r:id="rId149"/>
+    <hyperlink ref="A39" display="avoiding_floating_point_errors_in_custom_build_environments.md" r:id="rId150"/>
+    <hyperlink ref="C39" display="avoiding_floating_point_errors_in_custom_build_environments.cee0e6d04ff683ed75853cbaefdb3cb80a9ba8b9.zh-cn.xlf" r:id="rId151"/>
+    <hyperlink ref="E39" display="avoiding_floating_point_errors_in_custom_build_environments.md" r:id="rId152"/>
+    <hyperlink ref="F39" display="avoiding_floating_point_errors_in_custom_build_environments.cee0e6d04ff683ed75853cbaefdb3cb80a9ba8b9.zh-cn.xlf" r:id="rId153"/>
+    <hyperlink ref="A40" display="building_a_driver.md" r:id="rId154"/>
+    <hyperlink ref="C40" display="building_a_driver.cbc09280250e99cd2659c1df5d0ad4fc537f9081.zh-cn.xlf" r:id="rId155"/>
+    <hyperlink ref="E40" display="building_a_driver.md" r:id="rId156"/>
+    <hyperlink ref="F40" display="building_a_driver.cbc09280250e99cd2659c1df5d0ad4fc537f9081.zh-cn.xlf" r:id="rId157"/>
+    <hyperlink ref="A41" display="building_drivers_for_different_versions_of_windows.md" r:id="rId158"/>
+    <hyperlink ref="C41" display="building_drivers_for_different_versions_of_windows.a7c7436aaf4de0b7c53827a0fa712ca3bde1a84c.zh-cn.xlf" r:id="rId159"/>
+    <hyperlink ref="E41" display="building_drivers_for_different_versions_of_windows.md" r:id="rId160"/>
+    <hyperlink ref="F41" display="building_drivers_for_different_versions_of_windows.a7c7436aaf4de0b7c53827a0fa712ca3bde1a84c.zh-cn.xlf" r:id="rId161"/>
+    <hyperlink ref="A42" display="converting_wdk_8_1_projects_to_wdk_10.md" r:id="rId162"/>
+    <hyperlink ref="C42" display="converting_wdk_8_1_projects_to_wdk_10.474e5e2dbbaf162065af3c72ae497364a406ed87.zh-cn.xlf" r:id="rId163"/>
+    <hyperlink ref="E42" display="converting_wdk_8_1_projects_to_wdk_10.md" r:id="rId164"/>
+    <hyperlink ref="F42" display="converting_wdk_8_1_projects_to_wdk_10.474e5e2dbbaf162065af3c72ae497364a406ed87.zh-cn.xlf" r:id="rId165"/>
+    <hyperlink ref="A43" display="counters_manifest_preprocessor_properties_for_driver_projects.md" r:id="rId166"/>
+    <hyperlink ref="C43" display="counters_manifest_preprocessor_properties_for_driver_projects.eeeab85b33933cf108a80d82f2b8adc624e8e2ed.zh-cn.xlf" r:id="rId167"/>
+    <hyperlink ref="E43" display="counters_manifest_preprocessor_properties_for_driver_projects.md" r:id="rId168"/>
+    <hyperlink ref="F43" display="counters_manifest_preprocessor_properties_for_driver_projects.eeeab85b33933cf108a80d82f2b8adc624e8e2ed.zh-cn.xlf" r:id="rId169"/>
+    <hyperlink ref="A44" display="create_a_custom_driver_installation_script.md" r:id="rId170"/>
+    <hyperlink ref="C44" display="create_a_custom_driver_installation_script.357dbb9021e614bca1c5fa19d9777bca3fffefb9.zh-cn.xlf" r:id="rId171"/>
+    <hyperlink ref="E44" display="create_a_custom_driver_installation_script.md" r:id="rId172"/>
+    <hyperlink ref="F44" display="create_a_custom_driver_installation_script.357dbb9021e614bca1c5fa19d9777bca3fffefb9.zh-cn.xlf" r:id="rId173"/>
+    <hyperlink ref="A45" display="creating_a_device_metadata_package.md" r:id="rId174"/>
+    <hyperlink ref="C45" display="creating_a_device_metadata_package.d2e96cda60fffef1c4ac7d8c69c5442ec20ed839.zh-cn.xlf" r:id="rId175"/>
+    <hyperlink ref="E45" display="creating_a_device_metadata_package.md" r:id="rId176"/>
+    <hyperlink ref="F45" display="creating_a_device_metadata_package.d2e96cda60fffef1c4ac7d8c69c5442ec20ed839.zh-cn.xlf" r:id="rId177"/>
+    <hyperlink ref="A46" display="creating_a_driver_from_existing_source_files.md" r:id="rId178"/>
+    <hyperlink ref="C46" display="creating_a_driver_from_existing_source_files.21b428e353639aad4f789fbce2c093e8dafd9dc2.zh-cn.xlf" r:id="rId179"/>
+    <hyperlink ref="E46" display="creating_a_driver_from_existing_source_files.md" r:id="rId180"/>
+    <hyperlink ref="F46" display="creating_a_driver_from_existing_source_files.21b428e353639aad4f789fbce2c093e8dafd9dc2.zh-cn.xlf" r:id="rId181"/>
+    <hyperlink ref="A47" display="creating_a_driver_package.md" r:id="rId182"/>
+    <hyperlink ref="C47" display="creating_a_driver_package.73e06db2ddf1087ccf602c36d1ff122837314e31.zh-cn.xlf" r:id="rId183"/>
+    <hyperlink ref="E47" display="creating_a_driver_package.md" r:id="rId184"/>
+    <hyperlink ref="F47" display="creating_a_driver_package.73e06db2ddf1087ccf602c36d1ff122837314e31.zh-cn.xlf" r:id="rId185"/>
+    <hyperlink ref="A48" display="creating_a_driver_verification_log.md" r:id="rId186"/>
+    <hyperlink ref="C48" display="creating_a_driver_verification_log.96eff15d7e468242b14cf46aedc5527782908604.zh-cn.xlf" r:id="rId187"/>
+    <hyperlink ref="E48" display="creating_a_driver_verification_log.md" r:id="rId188"/>
+    <hyperlink ref="F48" display="creating_a_driver_verification_log.96eff15d7e468242b14cf46aedc5527782908604.zh-cn.xlf" r:id="rId189"/>
+    <hyperlink ref="A49" display="creating_a_log_file_for_static_driver_verifier.md" r:id="rId190"/>
+    <hyperlink ref="C49" display="creating_a_log_file_for_static_driver_verifier.c33f99351b08661a50d5fd3977e69e4a534e5dbf.zh-cn.xlf" r:id="rId191"/>
+    <hyperlink ref="E49" display="creating_a_log_file_for_static_driver_verifier.md" r:id="rId192"/>
+    <hyperlink ref="F49" display="creating_a_log_file_for_static_driver_verifier.c33f99351b08661a50d5fd3977e69e4a534e5dbf.zh-cn.xlf" r:id="rId193"/>
+    <hyperlink ref="A50" display="creating_a_log_file_for_the_code_analysis_tool.md" r:id="rId194"/>
+    <hyperlink ref="C50" display="creating_a_log_file_for_the_code_analysis_tool.9af7d60829f22ab6d9d9660d5f3fe961d7f765df.zh-cn.xlf" r:id="rId195"/>
+    <hyperlink ref="E50" display="creating_a_log_file_for_the_code_analysis_tool.md" r:id="rId196"/>
+    <hyperlink ref="F50" display="creating_a_log_file_for_the_code_analysis_tool.9af7d60829f22ab6d9d9660d5f3fe961d7f765df.zh-cn.xlf" r:id="rId197"/>
+    <hyperlink ref="A51" display="creating_a_new_driver.md" r:id="rId198"/>
+    <hyperlink ref="C51" display="creating_a_new_driver.2beda9848f2913454930779b42c798c7a14e4b30.zh-cn.xlf" r:id="rId199"/>
+    <hyperlink ref="E51" display="creating_a_new_driver.md" r:id="rId200"/>
+    <hyperlink ref="F51" display="creating_a_new_driver.2beda9848f2913454930779b42c798c7a14e4b30.zh-cn.xlf" r:id="rId201"/>
+    <hyperlink ref="A52" display="creating_a_new_filter_driver.md" r:id="rId202"/>
+    <hyperlink ref="C52" display="creating_a_new_filter_driver.d70f3a12da3192fe8e7ff943a58111b6eaaff602.zh-cn.xlf" r:id="rId203"/>
+    <hyperlink ref="E52" display="creating_a_new_filter_driver.md" r:id="rId204"/>
+    <hyperlink ref="F52" display="creating_a_new_filter_driver.d70f3a12da3192fe8e7ff943a58111b6eaaff602.zh-cn.xlf" r:id="rId205"/>
+    <hyperlink ref="A53" display="creating_a_new_software_driver.md" r:id="rId206"/>
+    <hyperlink ref="C53" display="creating_a_new_software_driver.080b52a3e470fa06b9cbbef274ae2a9a61c3524d.zh-cn.xlf" r:id="rId207"/>
+    <hyperlink ref="E53" display="creating_a_new_software_driver.md" r:id="rId208"/>
+    <hyperlink ref="F53" display="creating_a_new_software_driver.080b52a3e470fa06b9cbbef274ae2a9a61c3524d.zh-cn.xlf" r:id="rId209"/>
+    <hyperlink ref="A54" display="debugging_a_driver.md" r:id="rId210"/>
+    <hyperlink ref="C54" display="debugging_a_driver.d0f46f354896826a092820cf39261d4f410dbeed.zh-cn.xlf" r:id="rId211"/>
+    <hyperlink ref="E54" display="debugging_a_driver.md" r:id="rId212"/>
+    <hyperlink ref="F54" display="debugging_a_driver.d0f46f354896826a092820cf39261d4f410dbeed.zh-cn.xlf" r:id="rId213"/>
+    <hyperlink ref="A55" display="deploying_a_driver_to_a_test_computer.md" r:id="rId214"/>
+    <hyperlink ref="C55" display="deploying_a_driver_to_a_test_computer.5d1d0565bb41ea5d115f7a9b856ba02546d36a95.zh-cn.xlf" r:id="rId215"/>
+    <hyperlink ref="E55" display="deploying_a_driver_to_a_test_computer.md" r:id="rId216"/>
+    <hyperlink ref="F55" display="deploying_a_driver_to_a_test_computer.5d1d0565bb41ea5d115f7a9b856ba02546d36a95.zh-cn.xlf" r:id="rId217"/>
+    <hyperlink ref="A56" display="deployment_properties_for_driver_projects.md" r:id="rId218"/>
+    <hyperlink ref="C56" display="deployment_properties_for_driver_projects.0608b2ac61637bfa80027bab956bf36221bc7bbc.zh-cn.xlf" r:id="rId219"/>
+    <hyperlink ref="E56" display="deployment_properties_for_driver_projects.md" r:id="rId220"/>
+    <hyperlink ref="F56" display="deployment_properties_for_driver_projects.0608b2ac61637bfa80027bab956bf36221bc7bbc.zh-cn.xlf" r:id="rId221"/>
+    <hyperlink ref="A57" display="distributing_a_driver_package_win8.md" r:id="rId222"/>
+    <hyperlink ref="C57" display="distributing_a_driver_package_win8.12755b11f7f467f14f730a8c28f8eaa90468c4eb.zh-cn.xlf" r:id="rId223"/>
+    <hyperlink ref="E57" display="distributing_a_driver_package_win8.md" r:id="rId224"/>
+    <hyperlink ref="F57" display="distributing_a_driver_package_win8.12755b11f7f467f14f730a8c28f8eaa90468c4eb.zh-cn.xlf" r:id="rId225"/>
+    <hyperlink ref="A58" display="driver_model_convergence.md" r:id="rId226"/>
+    <hyperlink ref="C58" display="driver_model_convergence.a1a2d739cd3547a1e600d802ab77a42dc77bc286.zh-cn.xlf" r:id="rId227"/>
+    <hyperlink ref="E58" display="driver_model_convergence.md" r:id="rId228"/>
+    <hyperlink ref="F58" display="driver_model_convergence.a1a2d739cd3547a1e600d802ab77a42dc77bc286.zh-cn.xlf" r:id="rId229"/>
+    <hyperlink ref="A59" display="driver_model_settings_properties_for_driver_projects.md" r:id="rId230"/>
+    <hyperlink ref="C59" display="driver_model_settings_properties_for_driver_projects.fcf119a52613a74a749a980980ec95063a23b0a1.zh-cn.xlf" r:id="rId231"/>
+    <hyperlink ref="E59" display="driver_model_settings_properties_for_driver_projects.md" r:id="rId232"/>
+    <hyperlink ref="F59" display="driver_model_settings_properties_for_driver_projects.fcf119a52613a74a749a980980ec95063a23b0a1.zh-cn.xlf" r:id="rId233"/>
+    <hyperlink ref="A60" display="driver_signing_properties.md" r:id="rId234"/>
+    <hyperlink ref="C60" display="driver_signing_properties.cb7fe7fb67183b04c9e6c6bfdb1d289dd5729a80.zh-cn.xlf" r:id="rId235"/>
+    <hyperlink ref="E60" display="driver_signing_properties.md" r:id="rId236"/>
+    <hyperlink ref="F60" display="driver_signing_properties.cb7fe7fb67183b04c9e6c6bfdb1d289dd5729a80.zh-cn.xlf" r:id="rId237"/>
+    <hyperlink ref="A61" display="driver_verifier_properties_for__driver_projects.md" r:id="rId238"/>
+    <hyperlink ref="C61" display="driver_verifier_properties_for__driver_projects.8af174283d96ea6ec207ff10ade1775c8f05918b.zh-cn.xlf" r:id="rId239"/>
+    <hyperlink ref="E61" display="driver_verifier_properties_for__driver_projects.md" r:id="rId240"/>
+    <hyperlink ref="F61" display="driver_verifier_properties_for__driver_projects.8af174283d96ea6ec207ff10ade1775c8f05918b.zh-cn.xlf" r:id="rId241"/>
+    <hyperlink ref="A62" display="getting_started_with_universal_drivers.md" r:id="rId242"/>
+    <hyperlink ref="C62" display="getting_started_with_universal_drivers.f719b648b017e312575ebdca030512f0c5325b94.zh-cn.xlf" r:id="rId243"/>
+    <hyperlink ref="E62" display="getting_started_with_universal_drivers.md" r:id="rId244"/>
+    <hyperlink ref="F62" display="getting_started_with_universal_drivers.f719b648b017e312575ebdca030512f0c5325b94.zh-cn.xlf" r:id="rId245"/>
+    <hyperlink ref="A63" display="how_to_select_and_configure_the_device_fundamental_tests.md" r:id="rId246"/>
+    <hyperlink ref="C63" display="how_to_select_and_configure_the_device_fundamental_tests.12af8415bd7bce765f79bc6a510ea434fdd37296.zh-cn.xlf" r:id="rId247"/>
+    <hyperlink ref="E63" display="how_to_select_and_configure_the_device_fundamental_tests.md" r:id="rId248"/>
+    <hyperlink ref="F63" display="how_to_select_and_configure_the_device_fundamental_tests.12af8415bd7bce765f79bc6a510ea434fdd37296.zh-cn.xlf" r:id="rId249"/>
+    <hyperlink ref="A64" display="how_to_test_a_driver_at_runtime_from_a_command_prompt.md" r:id="rId250"/>
+    <hyperlink ref="C64" display="how_to_test_a_driver_at_runtime_from_a_command_prompt.dd9b45b531d935ce5ab79c83e50b2d632e3e16fa.zh-cn.xlf" r:id="rId251"/>
+    <hyperlink ref="E64" display="how_to_test_a_driver_at_runtime_from_a_command_prompt.md" r:id="rId252"/>
+    <hyperlink ref="F64" display="how_to_test_a_driver_at_runtime_from_a_command_prompt.dd9b45b531d935ce5ab79c83e50b2d632e3e16fa.zh-cn.xlf" r:id="rId253"/>
+    <hyperlink ref="A65" display="how_to_write_a_driver_test_.md" r:id="rId254"/>
+    <hyperlink ref="C65" display="how_to_write_a_driver_test_.61f137f1ad3610a554d2e28e0410d98bfb985887.zh-cn.xlf" r:id="rId255"/>
+    <hyperlink ref="E65" display="how_to_write_a_driver_test_.md" r:id="rId256"/>
+    <hyperlink ref="F65" display="how_to_write_a_driver_test_.61f137f1ad3610a554d2e28e0410d98bfb985887.zh-cn.xlf" r:id="rId257"/>
+    <hyperlink ref="A66" display="attestation_driver_signing_submission_dashboard.png" r:id="rId258"/>
+    <hyperlink ref="C66" display="e0f09dec7a25d3016140c132c7e6f0411589b8f3.png" r:id="rId259"/>
+    <hyperlink ref="E66" display="attestation_driver_signing_submission_dashboard.png" r:id="rId260"/>
+    <hyperlink ref="F66" display="e0f09dec7a25d3016140c132c7e6f0411589b8f3.png" r:id="rId261"/>
+    <hyperlink ref="A67" display="b_wes_driversigning_v2.png" r:id="rId262"/>
+    <hyperlink ref="C67" display="21987b89a2bd6120f2fbb8084c822d6cf0f5b73e.png" r:id="rId263"/>
+    <hyperlink ref="E67" display="b_wes_driversigning_v2.png" r:id="rId264"/>
+    <hyperlink ref="F67" display="21987b89a2bd6120f2fbb8084c822d6cf0f5b73e.png" r:id="rId265"/>
+    <hyperlink ref="A68" display="ert_test_results.png" r:id="rId266"/>
+    <hyperlink ref="C68" display="df36e47e5bdc8ec928da08d1e7e8f66d7f421837.png" r:id="rId267"/>
+    <hyperlink ref="E68" display="ert_test_results.png" r:id="rId268"/>
+    <hyperlink ref="F68" display="df36e47e5bdc8ec928da08d1e7e8f66d7f421837.png" r:id="rId269"/>
+    <hyperlink ref="A69" display="MultipleDriversSingleSolution.png" r:id="rId270"/>
+    <hyperlink ref="C69" display="b4d01e34c4ef81ab40804f4cf5b6981d2cdd91bd.png" r:id="rId271"/>
+    <hyperlink ref="E69" display="MultipleDriversSingleSolution.png" r:id="rId272"/>
+    <hyperlink ref="F69" display="b4d01e34c4ef81ab40804f4cf5b6981d2cdd91bd.png" r:id="rId273"/>
+    <hyperlink ref="A70" display="SigningADriver01.png" r:id="rId274"/>
+    <hyperlink ref="C70" display="95f73079b57688206bf3238e1a509f0b81ba8da2.png" r:id="rId275"/>
+    <hyperlink ref="E70" display="SigningADriver01.png" r:id="rId276"/>
+    <hyperlink ref="F70" display="95f73079b57688206bf3238e1a509f0b81ba8da2.png" r:id="rId277"/>
+    <hyperlink ref="A71" display="TargetPlatform.png" r:id="rId278"/>
+    <hyperlink ref="C71" display="3ce2fdf00618bcc50d2d3b9454a1c522096e9053.png" r:id="rId279"/>
+    <hyperlink ref="E71" display="TargetPlatform.png" r:id="rId280"/>
+    <hyperlink ref="F71" display="3ce2fdf00618bcc50d2d3b9454a1c522096e9053.png" r:id="rId281"/>
+    <hyperlink ref="A72" display="VsDrvrPkgProps.png" r:id="rId282"/>
+    <hyperlink ref="C72" display="65302587cbc9b4aa1c3633df61751962844f9e2c.png" r:id="rId283"/>
+    <hyperlink ref="E72" display="VsDrvrPkgProps.png" r:id="rId284"/>
+    <hyperlink ref="F72" display="65302587cbc9b4aa1c3633df61751962844f9e2c.png" r:id="rId285"/>
+    <hyperlink ref="A73" display="VsSlnExplorer.png" r:id="rId286"/>
+    <hyperlink ref="C73" display="bd0c6c5437446ea0c01d45fd1049fff8f8b3790c.png" r:id="rId287"/>
+    <hyperlink ref="E73" display="VsSlnExplorer.png" r:id="rId288"/>
+    <hyperlink ref="F73" display="bd0c6c5437446ea0c01d45fd1049fff8f8b3790c.png" r:id="rId289"/>
+    <hyperlink ref="A74" display="inf2cat_properties_for_driver_package_projects.md" r:id="rId290"/>
+    <hyperlink ref="C74" display="inf2cat_properties_for_driver_package_projects.b6ddd3185a2c07176103bc47e341f746b0f23082.zh-cn.xlf" r:id="rId291"/>
+    <hyperlink ref="E74" display="inf2cat_properties_for_driver_package_projects.md" r:id="rId292"/>
+    <hyperlink ref="F74" display="inf2cat_properties_for_driver_package_projects.b6ddd3185a2c07176103bc47e341f746b0f23082.zh-cn.xlf" r:id="rId293"/>
+    <hyperlink ref="A75" display="installing_a_universal_driver.md" r:id="rId294"/>
+    <hyperlink ref="C75" display="installing_a_universal_driver.b7a0455a19eec512588540d32d294dc4dc588629.zh-cn.xlf" r:id="rId295"/>
+    <hyperlink ref="E75" display="installing_a_universal_driver.md" r:id="rId296"/>
+    <hyperlink ref="F75" display="installing_a_universal_driver.b7a0455a19eec512588540d32d294dc4dc588629.zh-cn.xlf" r:id="rId297"/>
+    <hyperlink ref="A76" display="Installing_the_Enterprise_WDK.md" r:id="rId298"/>
+    <hyperlink ref="C76" display="Installing_the_Enterprise_WDK.52bff242f4316ede62303abfe9b38068827b4926.zh-cn.xlf" r:id="rId299"/>
+    <hyperlink ref="E76" display="Installing_the_Enterprise_WDK.md" r:id="rId300"/>
+    <hyperlink ref="F76" display="Installing_the_Enterprise_WDK.52bff242f4316ede62303abfe9b38068827b4926.zh-cn.xlf" r:id="rId301"/>
+    <hyperlink ref="A77" display="installing_the_wdk_build_environment_in_a_lab.md" r:id="rId302"/>
+    <hyperlink ref="C77" display="installing_the_wdk_build_environment_in_a_lab.4b0d0259f015b7af204488eb719a7cd8fdad089d.zh-cn.xlf" r:id="rId303"/>
+    <hyperlink ref="E77" display="installing_the_wdk_build_environment_in_a_lab.md" r:id="rId304"/>
+    <hyperlink ref="F77" display="installing_the_wdk_build_environment_in_a_lab.4b0d0259f015b7af204488eb719a7cd8fdad089d.zh-cn.xlf" r:id="rId305"/>
+    <hyperlink ref="A78" display="kmdf_verifier_properties_for_driver_package_projects.md" r:id="rId306"/>
+    <hyperlink ref="C78" display="kmdf_verifier_properties_for_driver_package_projects.6de1407e3bb459c6c459466f7a405125c1537873.zh-cn.xlf" r:id="rId307"/>
+    <hyperlink ref="E78" display="kmdf_verifier_properties_for_driver_package_projects.md" r:id="rId308"/>
+    <hyperlink ref="F78" display="kmdf_verifier_properties_for_driver_package_projects.6de1407e3bb459c6c459466f7a405125c1537873.zh-cn.xlf" r:id="rId309"/>
+    <hyperlink ref="A79" display="message_compiler_properties_for_driver_projects.md" r:id="rId310"/>
+    <hyperlink ref="C79" display="message_compiler_properties_for_driver_projects.3f85a4a66d609368eb1e66eea78b63ae5f6c1b5b.zh-cn.xlf" r:id="rId311"/>
+    <hyperlink ref="E79" display="message_compiler_properties_for_driver_projects.md" r:id="rId312"/>
+    <hyperlink ref="F79" display="message_compiler_properties_for_driver_projects.3f85a4a66d609368eb1e66eea78b63ae5f6c1b5b.zh-cn.xlf" r:id="rId313"/>
+    <hyperlink ref="A80" display="mof_compiler_properties_for_driver_projects.md" r:id="rId314"/>
+    <hyperlink ref="C80" display="mof_compiler_properties_for_driver_projects.b84cd2cc7370511be671c43efa7c43bac0f3de27.zh-cn.xlf" r:id="rId315"/>
+    <hyperlink ref="E80" display="mof_compiler_properties_for_driver_projects.md" r:id="rId316"/>
+    <hyperlink ref="F80" display="mof_compiler_properties_for_driver_projects.b84cd2cc7370511be671c43efa7c43bac0f3de27.zh-cn.xlf" r:id="rId317"/>
+    <hyperlink ref="A81" display="preparing_a_computer_for_manual_driver_deployment.md" r:id="rId318"/>
+    <hyperlink ref="C81" display="preparing_a_computer_for_manual_driver_deployment.51ad54b679016cd1d0c801b7c7f7b9ab197d661d.zh-cn.xlf" r:id="rId319"/>
+    <hyperlink ref="E81" display="preparing_a_computer_for_manual_driver_deployment.md" r:id="rId320"/>
+    <hyperlink ref="F81" display="preparing_a_computer_for_manual_driver_deployment.51ad54b679016cd1d0c801b7c7f7b9ab197d661d.zh-cn.xlf" r:id="rId321"/>
+    <hyperlink ref="A82" display="read_the_driver_test_results_log.md" r:id="rId322"/>
+    <hyperlink ref="C82" display="read_the_driver_test_results_log.eb789dceaf151302de89217fe530e346162f78b8.zh-cn.xlf" r:id="rId323"/>
+    <hyperlink ref="E82" display="read_the_driver_test_results_log.md" r:id="rId324"/>
+    <hyperlink ref="F82" display="read_the_driver_test_results_log.eb789dceaf151302de89217fe530e346162f78b8.zh-cn.xlf" r:id="rId325"/>
+    <hyperlink ref="A83" display="README.md" r:id="rId326"/>
+    <hyperlink ref="C83" display="README.61953ed54565669063acc19192c50e7fa0b2d6c5.zh-cn.xlf" r:id="rId327"/>
+    <hyperlink ref="E83" display="README.md" r:id="rId328"/>
+    <hyperlink ref="F83" display="README.61953ed54565669063acc19192c50e7fa0b2d6c5.zh-cn.xlf" r:id="rId329"/>
+    <hyperlink ref="A84" display="run_the_hck_test_suites_in_the_wdk.md" r:id="rId330"/>
+    <hyperlink ref="C84" display="run_the_hck_test_suites_in_the_wdk.626ab9e426be669c2b7872664e5b36e04a040e48.zh-cn.xlf" r:id="rId331"/>
+    <hyperlink ref="E84" display="run_the_hck_test_suites_in_the_wdk.md" r:id="rId332"/>
+    <hyperlink ref="F84" display="run_the_hck_test_suites_in_the_wdk.626ab9e426be669c2b7872664e5b36e04a040e48.zh-cn.xlf" r:id="rId333"/>
+    <hyperlink ref="A85" display="signing_a_driver.md" r:id="rId334"/>
+    <hyperlink ref="C85" display="signing_a_driver.d8f891ef3713e655606ee7c5f10708fd6b1cad77.zh-cn.xlf" r:id="rId335"/>
+    <hyperlink ref="E85" display="signing_a_driver.md" r:id="rId336"/>
+    <hyperlink ref="F85" display="signing_a_driver.d8f891ef3713e655606ee7c5f10708fd6b1cad77.zh-cn.xlf" r:id="rId337"/>
+    <hyperlink ref="A86" display="signing_a_driver_during_development_and_testing.md" r:id="rId338"/>
+    <hyperlink ref="C86" display="signing_a_driver_during_development_and_testing.81a60998378a6f28726d548997445d60ddbfcb20.zh-cn.xlf" r:id="rId339"/>
+    <hyperlink ref="E86" display="signing_a_driver_during_development_and_testing.md" r:id="rId340"/>
+    <hyperlink ref="F86" display="signing_a_driver_during_development_and_testing.81a60998378a6f28726d548997445d60ddbfcb20.zh-cn.xlf" r:id="rId341"/>
+    <hyperlink ref="A87" display="signing_a_driver_for_public_release.md" r:id="rId342"/>
+    <hyperlink ref="C87" display="signing_a_driver_for_public_release.0493fdc06d8757a97e7a3d5b6b456d0f1b2ece55.zh-cn.xlf" r:id="rId343"/>
+    <hyperlink ref="E87" display="signing_a_driver_for_public_release.md" r:id="rId344"/>
+    <hyperlink ref="F87" display="signing_a_driver_for_public_release.0493fdc06d8757a97e7a3d5b6b456d0f1b2ece55.zh-cn.xlf" r:id="rId345"/>
+    <hyperlink ref="A88" display="stampinf_properties_for_driver_projects.md" r:id="rId346"/>
+    <hyperlink ref="C88" display="stampinf_properties_for_driver_projects.2326d09cab960412f419e514a8f362ce1b3a1baf.zh-cn.xlf" r:id="rId347"/>
+    <hyperlink ref="E88" display="stampinf_properties_for_driver_projects.md" r:id="rId348"/>
+    <hyperlink ref="F88" display="stampinf_properties_for_driver_projects.2326d09cab960412f419e514a8f362ce1b3a1baf.zh-cn.xlf" r:id="rId349"/>
+    <hyperlink ref="A89" display="strategies_for_testing_drivers_during_development.md" r:id="rId350"/>
+    <hyperlink ref="C89" display="strategies_for_testing_drivers_during_development.16bcb49fb4d79448be1c3bead0b002ad114c8071.zh-cn.xlf" r:id="rId351"/>
+    <hyperlink ref="E89" display="strategies_for_testing_drivers_during_development.md" r:id="rId352"/>
+    <hyperlink ref="F89" display="strategies_for_testing_drivers_during_development.16bcb49fb4d79448be1c3bead0b002ad114c8071.zh-cn.xlf" r:id="rId353"/>
+    <hyperlink ref="A90" display="test_a_driver_package.md" r:id="rId354"/>
+    <hyperlink ref="C90" display="test_a_driver_package.d17f8c0f32052a7cd3e7f2b181d1976478f5ae51.zh-cn.xlf" r:id="rId355"/>
+    <hyperlink ref="E90" display="test_a_driver_package.md" r:id="rId356"/>
+    <hyperlink ref="F90" display="test_a_driver_package.d17f8c0f32052a7cd3e7f2b181d1976478f5ae51.zh-cn.xlf" r:id="rId357"/>
+    <hyperlink ref="A91" display="testing_a_driver.md" r:id="rId358"/>
+    <hyperlink ref="C91" display="testing_a_driver.094134d3f100ae97179f8b35217317ca1dd92543.zh-cn.xlf" r:id="rId359"/>
+    <hyperlink ref="E91" display="testing_a_driver.md" r:id="rId360"/>
+    <hyperlink ref="F91" display="testing_a_driver.094134d3f100ae97179f8b35217317ca1dd92543.zh-cn.xlf" r:id="rId361"/>
+    <hyperlink ref="A92" display="testing_a_driver_at_runtime.md" r:id="rId362"/>
+    <hyperlink ref="C92" display="testing_a_driver_at_runtime.7297ee08eda57f78f10cb96021bb26e1b26031cb.zh-cn.xlf" r:id="rId363"/>
+    <hyperlink ref="E92" display="testing_a_driver_at_runtime.md" r:id="rId364"/>
+    <hyperlink ref="F92" display="testing_a_driver_at_runtime.7297ee08eda57f78f10cb96021bb26e1b26031cb.zh-cn.xlf" r:id="rId365"/>
+    <hyperlink ref="A93" display="to_add_test_metadata.md" r:id="rId366"/>
+    <hyperlink ref="C93" display="to_add_test_metadata.5628c4aeece116648c1aa37d87b85a14b59bc8f8.zh-cn.xlf" r:id="rId367"/>
+    <hyperlink ref="E93" display="to_add_test_metadata.md" r:id="rId368"/>
+    <hyperlink ref="F93" display="to_add_test_metadata.5628c4aeece116648c1aa37d87b85a14b59bc8f8.zh-cn.xlf" r:id="rId369"/>
+    <hyperlink ref="A94" display="TOC.md" r:id="rId370"/>
+    <hyperlink ref="C94" display="TOC.18945f002d8614ade84dd70a7a3a886036563906.zh-cn.xlf" r:id="rId371"/>
+    <hyperlink ref="E94" display="TOC.md" r:id="rId372"/>
+    <hyperlink ref="F94" display="TOC.18945f002d8614ade84dd70a7a3a886036563906.zh-cn.xlf" r:id="rId373"/>
+    <hyperlink ref="A95" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.md" r:id="rId374"/>
+    <hyperlink ref="C95" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.150387a3e5878072825b5c4de61ed143a92efbe3.zh-cn.xlf" r:id="rId375"/>
+    <hyperlink ref="E95" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.md" r:id="rId376"/>
+    <hyperlink ref="F95" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.150387a3e5878072825b5c4de61ed143a92efbe3.zh-cn.xlf" r:id="rId377"/>
+    <hyperlink ref="A96" display="troubleshooting_the_device_fundamental_tests.md" r:id="rId378"/>
     <hyperlink ref="C96" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.150387a3e5878072825b5c4de61ed143a92efbe3.zh-cn.xlf" r:id="rId379"/>
     <hyperlink ref="E96" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.md" r:id="rId380"/>
     <hyperlink ref="F96" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.150387a3e5878072825b5c4de61ed143a92efbe3.zh-cn.xlf" r:id="rId381"/>
-    <hyperlink ref="A97" display="troubleshooting_the_device_fundamental_tests.md" r:id="rId382"/>
-    <hyperlink ref="C97" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.150387a3e5878072825b5c4de61ed143a92efbe3.zh-cn.xlf" r:id="rId383"/>
-    <hyperlink ref="E97" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.md" r:id="rId384"/>
-    <hyperlink ref="F97" display="troubleshooting_configuration_of_driver_deployment__testing_and_debugging.150387a3e5878072825b5c4de61ed143a92efbe3.zh-cn.xlf" r:id="rId385"/>
-    <hyperlink ref="A98" display="umdf_verifier_properties_for_driver_package_projects.md" r:id="rId386"/>
-    <hyperlink ref="C98" display="umdf_verifier_properties_for_driver_package_projects.c74447a594f54cbf33538e4d86c298df572586e7.zh-cn.xlf" r:id="rId387"/>
-    <hyperlink ref="E98" display="umdf_verifier_properties_for_driver_package_projects.md" r:id="rId388"/>
-    <hyperlink ref="F98" display="umdf_verifier_properties_for_driver_package_projects.c74447a594f54cbf33538e4d86c298df572586e7.zh-cn.xlf" r:id="rId389"/>
-    <hyperlink ref="A99" display="using_the_microsoft_c_runtime_with_user_mode_drivers_and_apps.md" r:id="rId390"/>
-    <hyperlink ref="C99" display="using_the_microsoft_c_runtime_with_user_mode_drivers_and_apps.b387aa692a8e081d84588efa3f26e0baf9a6d11f.zh-cn.xlf" r:id="rId391"/>
-    <hyperlink ref="E99" display="using_the_microsoft_c_runtime_with_user_mode_drivers_and_apps.md" r:id="rId392"/>
-    <hyperlink ref="F99" display="using_the_microsoft_c_runtime_with_user_mode_drivers_and_apps.b387aa692a8e081d84588efa3f26e0baf9a6d11f.zh-cn.xlf" r:id="rId393"/>
-    <hyperlink ref="A100" display="validating_universal_drivers.md" r:id="rId394"/>
-    <hyperlink ref="C100" display="validating_universal_drivers.f62e7538d9469f919649024785de1ce56d1d51d1.zh-cn.xlf" r:id="rId395"/>
-    <hyperlink ref="E100" display="validating_universal_drivers.md" r:id="rId396"/>
-    <hyperlink ref="F100" display="validating_universal_drivers.f62e7538d9469f919649024785de1ce56d1d51d1.zh-cn.xlf" r:id="rId397"/>
-    <hyperlink ref="A101" display="visual_studio_driver_development_environment.md" r:id="rId398"/>
-    <hyperlink ref="C101" display="visual_studio_driver_development_environment.8000e0deea179f6875a81edfb7b928b8889c0d63.zh-cn.xlf" r:id="rId399"/>
-    <hyperlink ref="E101" display="visual_studio_driver_development_environment.md" r:id="rId400"/>
-    <hyperlink ref="F101" display="visual_studio_driver_development_environment.8000e0deea179f6875a81edfb7b928b8889c0d63.zh-cn.xlf" r:id="rId401"/>
-    <hyperlink ref="A102" display="what_happens_when_you_provision_a_computer__wdk_8_0_.md" r:id="rId402"/>
-    <hyperlink ref="C102" display="what_happens_when_you_provision_a_computer__wdk_8_0_.a7c85524b6e8ece19940ef2541798bb113898dd1.zh-cn.xlf" r:id="rId403"/>
-    <hyperlink ref="E102" display="what_happens_when_you_provision_a_computer__wdk_8_0_.md" r:id="rId404"/>
-    <hyperlink ref="F102" display="what_happens_when_you_provision_a_computer__wdk_8_0_.a7c85524b6e8ece19940ef2541798bb113898dd1.zh-cn.xlf" r:id="rId405"/>
-    <hyperlink ref="A103" display="what_happens_when_you_provision_a_computer__wdk_8_1_.md" r:id="rId406"/>
-    <hyperlink ref="C103" display="what_happens_when_you_provision_a_computer__wdk_8_1_.8ad0b1b3a0a4a147e38782bf64c94e3f9c4e3fe3.zh-cn.xlf" r:id="rId407"/>
-    <hyperlink ref="E103" display="what_happens_when_you_provision_a_computer__wdk_8_1_.md" r:id="rId408"/>
-    <hyperlink ref="F103" display="what_happens_when_you_provision_a_computer__wdk_8_1_.8ad0b1b3a0a4a147e38782bf64c94e3f9c4e3fe3.zh-cn.xlf" r:id="rId409"/>
-    <hyperlink ref="A104" display="windows_10_editions_for_universal_drivers.md" r:id="rId410"/>
-    <hyperlink ref="C104" display="windows_10_editions_for_universal_drivers.4cd87125419ce917f638854e2b8bf422e6600f23.zh-cn.xlf" r:id="rId411"/>
-    <hyperlink ref="E104" display="windows_10_editions_for_universal_drivers.md" r:id="rId412"/>
-    <hyperlink ref="F104" display="windows_10_editions_for_universal_drivers.4cd87125419ce917f638854e2b8bf422e6600f23.zh-cn.xlf" r:id="rId413"/>
-    <hyperlink ref="A105" display="Welcome.md" r:id="rId414"/>
-    <hyperlink ref="C105" display="Welcome.ecbb965b6e13825c7524206fa12c4cc64183e55b.zh-cn.xlf" r:id="rId415"/>
-    <hyperlink ref="E105" display="Welcome.md" r:id="rId416"/>
-    <hyperlink ref="F105" display="Welcome.ecbb965b6e13825c7524206fa12c4cc64183e55b.zh-cn.xlf" r:id="rId417"/>
+    <hyperlink ref="A97" display="umdf_verifier_properties_for_driver_package_projects.md" r:id="rId382"/>
+    <hyperlink ref="C97" display="umdf_verifier_properties_for_driver_package_projects.c74447a594f54cbf33538e4d86c298df572586e7.zh-cn.xlf" r:id="rId383"/>
+    <hyperlink ref="E97" display="umdf_verifier_properties_for_driver_package_projects.md" r:id="rId384"/>
+    <hyperlink ref="F97" display="umdf_verifier_properties_for_driver_package_projects.c74447a594f54cbf33538e4d86c298df572586e7.zh-cn.xlf" r:id="rId385"/>
+    <hyperlink ref="A98" display="using_the_microsoft_c_runtime_with_user_mode_drivers_and_apps.md" r:id="rId386"/>
+    <hyperlink ref="C98" display="using_the_microsoft_c_runtime_with_user_mode_drivers_and_apps.b387aa692a8e081d84588efa3f26e0baf9a6d11f.zh-cn.xlf" r:id="rId387"/>
+    <hyperlink ref="E98" display="using_the_microsoft_c_runtime_with_user_mode_drivers_and_apps.md" r:id="rId388"/>
+    <hyperlink ref="F98" display="using_the_microsoft_c_runtime_with_user_mode_drivers_and_apps.b387aa692a8e081d84588efa3f26e0baf9a6d11f.zh-cn.xlf" r:id="rId389"/>
+    <hyperlink ref="A99" display="validating_universal_drivers.md" r:id="rId390"/>
+    <hyperlink ref="C99" display="validating_universal_drivers.f62e7538d9469f919649024785de1ce56d1d51d1.zh-cn.xlf" r:id="rId391"/>
+    <hyperlink ref="E99" display="validating_universal_drivers.md" r:id="rId392"/>
+    <hyperlink ref="F99" display="validating_universal_drivers.f62e7538d9469f919649024785de1ce56d1d51d1.zh-cn.xlf" r:id="rId393"/>
+    <hyperlink ref="A100" display="visual_studio_driver_development_environment.md" r:id="rId394"/>
+    <hyperlink ref="C100" display="visual_studio_driver_development_environment.8000e0deea179f6875a81edfb7b928b8889c0d63.zh-cn.xlf" r:id="rId395"/>
+    <hyperlink ref="E100" display="visual_studio_driver_development_environment.md" r:id="rId396"/>
+    <hyperlink ref="F100" display="visual_studio_driver_development_environment.8000e0deea179f6875a81edfb7b928b8889c0d63.zh-cn.xlf" r:id="rId397"/>
+    <hyperlink ref="A101" display="what_happens_when_you_provision_a_computer__wdk_8_0_.md" r:id="rId398"/>
+    <hyperlink ref="C101" display="what_happens_when_you_provision_a_computer__wdk_8_0_.a7c85524b6e8ece19940ef2541798bb113898dd1.zh-cn.xlf" r:id="rId399"/>
+    <hyperlink ref="E101" display="what_happens_when_you_provision_a_computer__wdk_8_0_.md" r:id="rId400"/>
+    <hyperlink ref="F101" display="what_happens_when_you_provision_a_computer__wdk_8_0_.a7c85524b6e8ece19940ef2541798bb113898dd1.zh-cn.xlf" r:id="rId401"/>
+    <hyperlink ref="A102" display="what_happens_when_you_provision_a_computer__wdk_8_1_.md" r:id="rId402"/>
+    <hyperlink ref="C102" display="what_happens_when_you_provision_a_computer__wdk_8_1_.8ad0b1b3a0a4a147e38782bf64c94e3f9c4e3fe3.zh-cn.xlf" r:id="rId403"/>
+    <hyperlink ref="E102" display="what_happens_when_you_provision_a_computer__wdk_8_1_.md" r:id="rId404"/>
+    <hyperlink ref="F102" display="what_happens_when_you_provision_a_computer__wdk_8_1_.8ad0b1b3a0a4a147e38782bf64c94e3f9c4e3fe3.zh-cn.xlf" r:id="rId405"/>
+    <hyperlink ref="A103" display="windows_10_editions_for_universal_drivers.md" r:id="rId406"/>
+    <hyperlink ref="C103" display="windows_10_editions_for_universal_drivers.4cd87125419ce917f638854e2b8bf422e6600f23.zh-cn.xlf" r:id="rId407"/>
+    <hyperlink ref="E103" display="windows_10_editions_for_universal_drivers.md" r:id="rId408"/>
+    <hyperlink ref="F103" display="windows_10_editions_for_universal_drivers.4cd87125419ce917f638854e2b8bf422e6600f23.zh-cn.xlf" r:id="rId409"/>
+    <hyperlink ref="A104" display="Welcome.md" r:id="rId410"/>
+    <hyperlink ref="C104" display="Welcome.ecbb965b6e13825c7524206fa12c4cc64183e55b.zh-cn.xlf" r:id="rId411"/>
+    <hyperlink ref="E104" display="Welcome.md" r:id="rId412"/>
+    <hyperlink ref="F104" display="Welcome.ecbb965b6e13825c7524206fa12c4cc64183e55b.zh-cn.xlf" r:id="rId413"/>
+    <hyperlink ref="A105" display="test-xliff-2.md" r:id="rId414"/>
+    <hyperlink ref="C105" display="test-xliff-2.9e74d19c2a06ffac1ddb5240e10c103cbf0db315.zh-cn.xlf" r:id="rId415"/>
+    <hyperlink ref="E105" display="attestation_signing_a_kernel_driver_for_public_release.md" r:id="rId416"/>
+    <hyperlink ref="F105" display="attestation_signing_a_kernel_driver_for_public_release.60952bf9330143f0f7f5ec5a32dd4e53f311b511.zh-cn.xlf" r:id="rId417"/>
     <hyperlink ref="A106" display=".gitignore" r:id="rId418"/>
     <hyperlink ref="A107" display=".localization-config" r:id="rId419"/>
     <hyperlink ref="A108" display=".openpublishing.build.mdproj" r:id="rId420"/>
@@ -6089,19 +6098,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>131</v>
@@ -6115,19 +6124,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>131</v>
@@ -6144,7 +6153,7 @@
         <v>133</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -6153,7 +6162,7 @@
         <v>133</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>135</v>
@@ -6173,7 +6182,7 @@
         <v>137</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
@@ -6182,7 +6191,7 @@
         <v>137</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>135</v>
@@ -6202,7 +6211,7 @@
         <v>138</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
@@ -6211,7 +6220,7 @@
         <v>138</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>135</v>
@@ -6231,7 +6240,7 @@
         <v>139</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -6240,7 +6249,7 @@
         <v>139</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>135</v>
@@ -6260,7 +6269,7 @@
         <v>140</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -6269,7 +6278,7 @@
         <v>140</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>135</v>
@@ -6286,19 +6295,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>131</v>
@@ -6315,7 +6324,7 @@
         <v>142</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
@@ -6324,7 +6333,7 @@
         <v>142</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>135</v>
@@ -6344,7 +6353,7 @@
         <v>144</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -6353,7 +6362,7 @@
         <v>144</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>135</v>
@@ -6373,7 +6382,7 @@
         <v>146</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
@@ -6382,7 +6391,7 @@
         <v>146</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>135</v>
@@ -6399,19 +6408,19 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>131</v>
@@ -6425,19 +6434,19 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>131</v>
@@ -6451,19 +6460,19 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>131</v>
@@ -6477,19 +6486,19 @@
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>131</v>
@@ -6506,19 +6515,19 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>131</v>
@@ -6532,19 +6541,19 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>131</v>
@@ -6558,19 +6567,19 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>131</v>
@@ -6584,19 +6593,19 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>131</v>
@@ -6610,19 +6619,19 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>131</v>
@@ -6636,19 +6645,19 @@
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>131</v>
@@ -6662,19 +6671,19 @@
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>131</v>
@@ -6688,19 +6697,19 @@
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>131</v>
@@ -6714,19 +6723,19 @@
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>131</v>
@@ -6743,7 +6752,7 @@
         <v>157</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>28</v>
@@ -6752,7 +6761,7 @@
         <v>157</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>135</v>
@@ -6772,7 +6781,7 @@
         <v>159</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>29</v>
@@ -6781,7 +6790,7 @@
         <v>159</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>135</v>
@@ -6801,7 +6810,7 @@
         <v>160</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>30</v>
@@ -6810,7 +6819,7 @@
         <v>160</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>135</v>
@@ -6830,7 +6839,7 @@
         <v>161</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>31</v>
@@ -6839,7 +6848,7 @@
         <v>161</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>135</v>
@@ -6856,19 +6865,19 @@
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>131</v>
@@ -6882,19 +6891,19 @@
         <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>131</v>
@@ -6908,19 +6917,19 @@
         <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>131</v>
@@ -6934,19 +6943,19 @@
         <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>131</v>
@@ -6960,19 +6969,19 @@
         <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>131</v>
@@ -6986,19 +6995,19 @@
         <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>131</v>
@@ -7006,25 +7015,25 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>131</v>
@@ -7032,19 +7041,19 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>131</v>
@@ -7052,19 +7061,19 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>131</v>
@@ -7072,19 +7081,19 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>131</v>
@@ -7092,19 +7101,19 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>131</v>
@@ -7112,19 +7121,19 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>131</v>
@@ -7132,19 +7141,19 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="G42" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>131</v>
@@ -7152,19 +7161,19 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>131</v>
@@ -7172,19 +7181,19 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>131</v>
@@ -7192,19 +7201,19 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>131</v>
@@ -7212,19 +7221,19 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>131</v>
@@ -7232,19 +7241,19 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>131</v>
@@ -7252,19 +7261,19 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>131</v>
@@ -7272,19 +7281,19 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>131</v>
@@ -7292,19 +7301,19 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>131</v>
@@ -7312,19 +7321,19 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>131</v>
@@ -7332,19 +7341,19 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>131</v>
@@ -7352,19 +7361,19 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>131</v>
@@ -7372,19 +7381,19 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>131</v>
@@ -7392,19 +7401,19 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>131</v>
@@ -7412,19 +7421,19 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>131</v>
@@ -7432,19 +7441,19 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>131</v>
@@ -7452,19 +7461,19 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>131</v>
@@ -7472,19 +7481,19 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>131</v>
@@ -7492,19 +7501,19 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>131</v>
@@ -7512,19 +7521,19 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>131</v>
@@ -7532,19 +7541,19 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>131</v>
@@ -7552,19 +7561,19 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>131</v>
@@ -7572,19 +7581,19 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>131</v>
@@ -7592,19 +7601,19 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>131</v>
@@ -7612,19 +7621,19 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>131</v>
@@ -7632,19 +7641,19 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>135</v>
@@ -7655,19 +7664,19 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>203</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>135</v>
@@ -7678,19 +7687,19 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>135</v>
@@ -7701,19 +7710,19 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>206</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>135</v>
@@ -7724,19 +7733,19 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>135</v>
@@ -7747,19 +7756,19 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>135</v>
@@ -7770,19 +7779,19 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>212</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H73" s="0" t="s">
         <v>135</v>
@@ -7793,19 +7802,19 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>135</v>
@@ -7816,19 +7825,19 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>131</v>
@@ -7836,19 +7845,19 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>131</v>
@@ -7856,19 +7865,19 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>131</v>
@@ -7876,19 +7885,19 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>131</v>
@@ -7896,19 +7905,19 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>131</v>
@@ -7916,19 +7925,19 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>131</v>
@@ -7936,19 +7945,19 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>131</v>
@@ -7956,19 +7965,19 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>131</v>
@@ -7976,19 +7985,19 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>131</v>
@@ -7996,19 +8005,19 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>131</v>
@@ -8016,19 +8025,19 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H85" s="0" t="s">
         <v>131</v>
@@ -8036,19 +8045,19 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>131</v>
@@ -8056,19 +8065,19 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>131</v>
@@ -8076,19 +8085,19 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>131</v>
@@ -8096,19 +8105,19 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>131</v>
@@ -8116,19 +8125,19 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>131</v>
@@ -8136,19 +8145,19 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H91" s="0" t="s">
         <v>131</v>
@@ -8156,19 +8165,19 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H92" s="0" t="s">
         <v>131</v>
@@ -8176,19 +8185,19 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H93" s="0" t="s">
         <v>131</v>
@@ -8196,19 +8205,19 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H94" s="0" t="s">
         <v>131</v>
@@ -8216,19 +8225,19 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H95" s="0" t="s">
         <v>131</v>
@@ -8236,19 +8245,19 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>131</v>
@@ -8256,19 +8265,19 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>131</v>
@@ -8276,19 +8285,19 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H98" s="0" t="s">
         <v>131</v>
@@ -8296,19 +8305,19 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>131</v>
@@ -8316,19 +8325,19 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>131</v>
@@ -8336,19 +8345,19 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>131</v>
@@ -8356,19 +8365,19 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H102" s="0" t="s">
         <v>131</v>
@@ -8376,19 +8385,19 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>131</v>
@@ -8396,19 +8405,19 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>131</v>
@@ -8416,25 +8425,25 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H105" s="0" t="s">
         <v>131</v>
@@ -8448,13 +8457,13 @@
         <v>109</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="107">
@@ -8465,13 +8474,13 @@
         <v>109</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108">
@@ -8482,13 +8491,13 @@
         <v>109</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="109">
@@ -8499,13 +8508,13 @@
         <v>109</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="110">
@@ -8516,13 +8525,13 @@
         <v>109</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="111">
@@ -8533,30 +8542,30 @@
         <v>109</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>109</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="113">
@@ -8567,13 +8576,13 @@
         <v>109</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114">
@@ -8584,13 +8593,13 @@
         <v>109</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="115">
@@ -8601,13 +8610,13 @@
         <v>109</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="116">
@@ -8618,13 +8627,13 @@
         <v>109</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117">
@@ -8635,13 +8644,13 @@
         <v>109</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="118">
@@ -8652,13 +8661,13 @@
         <v>109</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -8804,7 +8813,7 @@
     <hyperlink ref="E36" display="TOC.md" r:id="rId140"/>
     <hyperlink ref="F36" display="TOC.a9ee67cb4f35ab2cb1a9b412181346e45899f313.de-de.xlf" r:id="rId141"/>
     <hyperlink ref="A37" display="test-xliff-2.md" r:id="rId142"/>
-    <hyperlink ref="C37" display="attestation_signing_a_kernel_driver_for_public_release.60952bf9330143f0f7f5ec5a32dd4e53f311b511.de-de.xlf" r:id="rId143"/>
+    <hyperlink ref="C37" display="test-xliff-2.9e74d19c2a06ffac1ddb5240e10c103cbf0db315.de-de.xlf" r:id="rId143"/>
     <hyperlink ref="A38" display="analyzing_driver_quality_by_using_code_analysis_tools.md" r:id="rId144"/>
     <hyperlink ref="C38" display="analyzing_driver_quality_by_using_code_analysis_tools.fa3d557dd7b16334872b19b7d288e2179b421f36.de-de.xlf" r:id="rId145"/>
     <hyperlink ref="A39" display="attestation_signing_a_kernel_driver_for_public_release.md" r:id="rId146"/>

--- a/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/localization-status.xlsx
@@ -746,7 +746,7 @@
     <t>2015-12-29 08:16:19</t>
   </si>
   <si>
-    <t>2016-02-22 08:49:27</t>
+    <t>2016-02-22 08:58:14</t>
   </si>
   <si>
     <t>Include</t>
@@ -1495,7 +1495,7 @@
     <t>2015-12-29 08:45:52</t>
   </si>
   <si>
-    <t>2016-02-22 08:49:37</t>
+    <t>2016-02-22 08:58:24</t>
   </si>
   <si>
     <t>Directions_To_Update_Existing_Topic_Using_Browser.467f0472275ff2bf87dc67094be537d8ed3ee882.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/localization-status.xlsx
@@ -1710,7 +1710,7 @@
     <t>90d7dca36f340986a0c7b98525226d3fd282aa6a.png</t>
   </si>
   <si>
-    <t>2016-02-24 05:24:56</t>
+    <t>2016-02-24 05:35:23</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
